--- a/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_instruction_exceptions.xlsx
+++ b/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_instruction_exceptions.xlsx
@@ -91,10 +91,12 @@
     <t xml:space="preserve">This test case will have the code tailored to contain misaligned jump addresses.    Compressed mode "C", causes this exception to not be reachable ???</t>
   </si>
   <si>
-    <t xml:space="preserve">Demonstrate that a misaligned address jump / branch attempt will cause and exception.  Also that a misaligned address jump NOT taken does not generate and exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When miss-aligned jump addresses are encountered there is an exception.  If a miss-aligned jump address is NOT taken, there is no exception.</t>
+    <t xml:space="preserve">Demonstrate that a misaligned address jump / branch attempt will cause and exception.
+Also that a misaligned address jump NOT taken does not generate and exception.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When miss-aligned jump addresses are encountered there is an exception.  If a miss-aligned jump address is NOT taken, there is no exception.
+Demonstrate that the exception is reported on the branch/jump instruction, not the target instruction. </t>
   </si>
   <si>
     <t xml:space="preserve">ISA
@@ -564,10 +566,10 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -650,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>

--- a/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_instruction_exceptions.xlsx
+++ b/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_instruction_exceptions.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmartin\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="RV32IMFCZ" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="RV32IMFCZ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,79 +23,545 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martin, John</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The sheet labels the core as RV32IMFCZ which is not acurate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Current implementation has no error signal coming from the bus. There is no situation that will cause a memory access exception.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I don’t think the core can throw a misaligned instruction exception. Perhaps this is a hole in the design or is simply not possible because of the hardwired bit in the PC and the encoding of all jumps and calls.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In particular the instruction you may expect an exception from (divide) does not throw an exception. Perhaps make sure this situation is covered?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This sounds like a directed test. Is this going to be captured as part of the ISG with a cover point?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I don't think the core can throw a missaligned data exception either. The core should issue two loads or stores in this case. Perhaps instead we should cover that a missaligned load/store happened.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Is there some level of overlap with a CSR test or is checking all the CSRs lumped into the exception test?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+master mode? Should this be machine mode?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Why is this a directed test? With the ISS in the loop you can just run randomized code and collect coverage on overlap of exceptions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I don't think there is an implementation of the timers outside of the interrupt coming into the core. That would be covered by the interrupt vplan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Then remove it from this vplan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+There is a lot of overlap with the interrupt testing for these CSRs. This should all be covered by step and compare with the CSRs in the ISS.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+It is not.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Remove the line then? Why is ecall considered part of debug testing? This would usually be used by an OS to call into the kernel. It should throw an exception not enter debug mode. Likewise, you can put an ebreak in your code without interaction of the DM. It should throw the exception (if ebreakx in dcsr is left at 0) instead of entering debug mode. It sounds like that case should be covered here.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I don't think this belongs in the exception vplan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Yes it waits but then what?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Yeah mcause is used by the exception and interrupt systems but isn't it better to cover the reset value of all CSRs in the CSR verification?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+NMI was removed. This wouldn't belong in the exceptions vplan either.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin, John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+There is instruction, load and store fault exceptions in the RTL but it may not be coverable since there is no error signal on either bus. Assertion or exclusion?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
   <si>
-    <t xml:space="preserve">Requirement Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verification Goal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass/Fail Critiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coverage Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link to Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA
+    <t>Requirement Location</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Verification Goal</t>
+  </si>
+  <si>
+    <t>Pass/Fail Critiera</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Coverage Method</t>
+  </si>
+  <si>
+    <t>Link to Coverage</t>
+  </si>
+  <si>
+    <t>ISA
 Chapter 1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Memory Access Exceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test case will randomly generate load/store to various regions in the memory map.  Some locations must be inaccessible.  This should include regions that are load accessible but not store accessible, and visa versa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that when a memory access to inaccessible address is done an exception happens at that instruction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exceptions happen at the expected times and can be serviced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sim / random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA
+    <t>Memory Access Exceptions</t>
+  </si>
+  <si>
+    <t>This test case will randomly generate load/store to various regions in the memory map.  Some locations must be inaccessible.  This should include regions that are load accessible but not store accessible, and visa versa.</t>
+  </si>
+  <si>
+    <t>Demonstrate that when a memory access to inaccessible address is done an exception happens at that instruction.</t>
+  </si>
+  <si>
+    <t>Exceptions happen at the expected times and can be serviced.</t>
+  </si>
+  <si>
+    <t>sim / random</t>
+  </si>
+  <si>
+    <t>ISA
 Chapter 1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Illegal Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test will cause exceptions by adding illegal instructions into the code stream.  This will include the all zeros 31-0 &amp; 15-0 coding.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that all illegal instructions cause an exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exceptions happen when an illegal instruction is encountered.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA
+    <t>Illegal Instructions</t>
+  </si>
+  <si>
+    <t>This test will cause exceptions by adding illegal instructions into the code stream.  This will include the all zeros 31-0 &amp; 15-0 coding.</t>
+  </si>
+  <si>
+    <t>Demonstrate that all illegal instructions cause an exception</t>
+  </si>
+  <si>
+    <t>Exceptions happen when an illegal instruction is encountered.</t>
+  </si>
+  <si>
+    <t>ISA
 Chapter 2.2 &amp; 2.5</t>
   </si>
   <si>
-    <t xml:space="preserve">instruction-address-misaligned exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test case will have the code tailored to contain misaligned jump addresses.    Compressed mode "C", causes this exception to not be reachable ???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that a misaligned address jump / branch attempt will cause and exception.
+    <t>instruction-address-misaligned exception</t>
+  </si>
+  <si>
+    <t>This test case will have the code tailored to contain misaligned jump addresses.    Compressed mode "C", causes this exception to not be reachable ???</t>
+  </si>
+  <si>
+    <t>Demonstrate that a misaligned address jump / branch attempt will cause and exception.
 Also that a misaligned address jump NOT taken does not generate and exception.</t>
   </si>
   <si>
@@ -99,368 +569,365 @@
 Demonstrate that the exception is reported on the branch/jump instruction, not the target instruction. </t>
   </si>
   <si>
-    <t xml:space="preserve">ISA
+    <t>ISA
 Chapter 2.4</t>
   </si>
   <si>
-    <t xml:space="preserve">No Exceptions on ALU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test case will attempt to cause exceptions using ALU instructions.    NOTE:  The test case writer will have to dig into the ALU instructions and see what can be done.  We know that a store to x0 will cause an exception.  But x0 as the rd in an ALU instruction should not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that no ALU instruction causes an exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the ALU intensive code runs there are not exceptions generated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA
+    <t>No Exceptions on ALU</t>
+  </si>
+  <si>
+    <t>This test case will attempt to cause exceptions using ALU instructions.    NOTE:  The test case writer will have to dig into the ALU instructions and see what can be done.  We know that a store to x0 will cause an exception.  But x0 as the rd in an ALU instruction should not.</t>
+  </si>
+  <si>
+    <t>Demonstrate that no ALU instruction causes an exception.</t>
+  </si>
+  <si>
+    <t>When the ALU intensive code runs there are not exceptions generated.</t>
+  </si>
+  <si>
+    <t>ISA
 Chapter 2.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Load x0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The test case will attempt to load to x0 and service the expected exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that a Load instruction with a target of x0 will cause an exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An attempted Load to x0 causes an exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load / Store Miss-align</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test case will cause address-miss-align exceptions by corrupting the code.  This may require "byte" addressing, cause of the "C" functionality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that miss-aligned load and store addresses cause exceptions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attempted Load / Store accesses to miss-aligned addresses cause exceptions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA
+    <t>Load x0</t>
+  </si>
+  <si>
+    <t>The test case will attempt to load to x0 and service the expected exception.</t>
+  </si>
+  <si>
+    <t>Demonstrate that a Load instruction with a target of x0 will cause an exception.</t>
+  </si>
+  <si>
+    <t>An attempted Load to x0 causes an exception.</t>
+  </si>
+  <si>
+    <t>Load / Store Miss-align</t>
+  </si>
+  <si>
+    <t>This test case will cause address-miss-align exceptions by corrupting the code.  This may require "byte" addressing, cause of the "C" functionality.</t>
+  </si>
+  <si>
+    <t>Demonstrate that miss-aligned load and store addresses cause exceptions.</t>
+  </si>
+  <si>
+    <t>Attempted Load / Store accesses to miss-aligned addresses cause exceptions.</t>
+  </si>
+  <si>
+    <t>ISA
 Chapter 5.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Reserved Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a test case with the "old" coding of theses instructions.  They are reserved now and should be in this design, illegal instructions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that the SLLIW, SRLIW and SRAIW instructions are not implemented.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the coding of one of these instructions is encountered an exception happens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA
+    <t>Reserved Instructions</t>
+  </si>
+  <si>
+    <t>Create a test case with the "old" coding of theses instructions.  They are reserved now and should be in this design, illegal instructions.</t>
+  </si>
+  <si>
+    <t>Demonstrate that the SLLIW, SRLIW and SRAIW instructions are not implemented.</t>
+  </si>
+  <si>
+    <t>When the coding of one of these instructions is encountered an exception happens.</t>
+  </si>
+  <si>
+    <t>ISA
 Chapter 11.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Dynamic Rounding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test case will be specifically created to cause this exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that If frm is set to an invalid value, any subsequent attempt to execute a floating-point operation with a dynamic rounding mode will raise an illegal instruction exception</t>
+    <t>Dynamic Rounding</t>
+  </si>
+  <si>
+    <t>This test case will be specifically created to cause this exception.</t>
+  </si>
+  <si>
+    <t>Demonstrate that If frm is set to an invalid value, any subsequent attempt to execute a floating-point operation with a dynamic rounding mode will raise an illegal instruction exception</t>
   </si>
   <si>
     <t xml:space="preserve">When frm is set to an invalid value, the next </t>
   </si>
   <si>
-    <t xml:space="preserve">ISA
+    <t>ISA
 Chapter 11.6</t>
   </si>
   <si>
-    <t xml:space="preserve">NaN Handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause the conditions as stated at ISA 11.6 exist then expect and service the exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that FMIN.S and FMAX.S can detect NaN and generate the expected exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The expected exceptions happen and can be serviced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sim / directed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA
+    <t>NaN Handling</t>
+  </si>
+  <si>
+    <t>Cause the conditions as stated at ISA 11.6 exist then expect and service the exception.</t>
+  </si>
+  <si>
+    <t>Demonstrate that FMIN.S and FMAX.S can detect NaN and generate the expected exception.</t>
+  </si>
+  <si>
+    <t>The expected exceptions happen and can be serviced.</t>
+  </si>
+  <si>
+    <t>sim / directed</t>
+  </si>
+  <si>
+    <t>ISA
 Chapter 11.7</t>
   </si>
   <si>
-    <t xml:space="preserve">Floating-Point Conversion and Move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This particular seqnece is stated to not cause an exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that the FCVT.S.W rd, x0 does not cause an exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No exception happens when the instruction is run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA
+    <t>Floating-Point Conversion and Move</t>
+  </si>
+  <si>
+    <t>This particular seqnece is stated to not cause an exception.</t>
+  </si>
+  <si>
+    <t>Demonstrate that the FCVT.S.W rd, x0 does not cause an exception</t>
+  </si>
+  <si>
+    <t>No exception happens when the instruction is run</t>
+  </si>
+  <si>
+    <t>ISA
 Chapter 11.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Floating-Point Compare Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a code sequence that will trigger a invalid operation exception by a FP compare,  service the exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that if either input to the compare instruction is a NaN, an exception will  happen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The exception happens as expected and can be serviced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Floating-Point Compare Instructions</t>
+  </si>
+  <si>
+    <t>Create a code sequence that will trigger a invalid operation exception by a FP compare,  service the exception</t>
+  </si>
+  <si>
+    <t>Demonstrate that if either input to the compare instruction is a NaN, an exception will  happen.</t>
+  </si>
+  <si>
+    <t>The exception happens as expected and can be serviced.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">CSR Access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attempted access to unprivlaged CSR, non-existant CSR will generate an illegal instruction exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that all illegal CSR accesses generate an exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSR Fields NOT Implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gather all the optional CSR fields that have not been implemented and prove that cannot be modified and read as zeros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that all optional fields within the register set, which are not implemented, are hard wired to zero.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All CSR fields function as expected.  If the implemenation traps on accesses to invalid fields, prove the exception happens as expected and can be serviced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>CSR Access</t>
+  </si>
+  <si>
+    <t>Attempted access to unprivlaged CSR, non-existant CSR will generate an illegal instruction exception.</t>
+  </si>
+  <si>
+    <t>Demonstrate that all illegal CSR accesses generate an exception.</t>
+  </si>
+  <si>
+    <t>CSR Fields NOT Implemented</t>
+  </si>
+  <si>
+    <t>Gather all the optional CSR fields that have not been implemented and prove that cannot be modified and read as zeros.</t>
+  </si>
+  <si>
+    <t>Demonstrate that all optional fields within the register set, which are not implemented, are hard wired to zero.</t>
+  </si>
+  <si>
+    <t>All CSR fields function as expected.  If the implemenation traps on accesses to invalid fields, prove the exception happens as expected and can be serviced.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.1.6.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Timeout Wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time out wait is not implemented in a system with only master mode.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that the TW bit is zero and can not be set.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The TW bit is zero and can not be changed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Timeout Wait</t>
+  </si>
+  <si>
+    <t>Time out wait is not implemented in a system with only master mode.</t>
+  </si>
+  <si>
+    <t>Demonstrate that the TW bit is zero and can not be set.</t>
+  </si>
+  <si>
+    <t>The TW bit is zero and can not be changed.</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.1.7</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine Trap-Vector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prove all vectors of a vectored implementation functions as expected.  Also, if available, prove the non-vectored configuration works as well.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that the trap vector register contents are used as the start address of a trap handler.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exceptions cause the address contained in the mtvec register, to be used for the start of exception code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Machine Trap-Vector</t>
+  </si>
+  <si>
+    <t>Prove all vectors of a vectored implementation functions as expected.  Also, if available, prove the non-vectored configuration works as well.</t>
+  </si>
+  <si>
+    <t>Demonstrate that the trap vector register contents are used as the start address of a trap handler.</t>
+  </si>
+  <si>
+    <t>Exceptions cause the address contained in the mtvec register, to be used for the start of exception code.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.1.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Exception Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a test case that will demonstrate the Exception priority.  Make some number of exceptions to happen at the same time, prove the order that they are presented to the core.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that the exception priority as stated in 3.1.9 exists in the DUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The priority of exceptions is as stated in the spec.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Exception Priority</t>
+  </si>
+  <si>
+    <t>Create a test case that will demonstrate the Exception priority.  Make some number of exceptions to happen at the same time, prove the order that they are presented to the core.</t>
+  </si>
+  <si>
+    <t>Demonstrate that the exception priority as stated in 3.1.9 exists in the DUT</t>
+  </si>
+  <si>
+    <t>The priority of exceptions is as stated in the spec.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.1.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Timer Registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a timer test case to demonstrate the features of the timer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that the timer registers and features operate as expected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timer features function as required and exceptions (timer time out) can be serviced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Timer Registers</t>
+  </si>
+  <si>
+    <t>Create a timer test case to demonstrate the features of the timer.</t>
+  </si>
+  <si>
+    <t>Demonstrate that the timer registers and features operate as expected.</t>
+  </si>
+  <si>
+    <t>Timer features function as required and exceptions (timer time out) can be serviced.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.1.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Hardware Performance Monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The test case will operate on the perfomance counters.  All counters that are implemented are covered.  Counters 3-31 have selectible events,  ensure all events are assigned to all counters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate the performance counter(s) are able to count the required or selected events.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counters function as expected and give the EXACT count expected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Hardware Performance Monitor</t>
+  </si>
+  <si>
+    <t>The test case will operate on the perfomance counters.  All counters that are implemented are covered.  Counters 3-31 have selectible events,  ensure all events are assigned to all counters.</t>
+  </si>
+  <si>
+    <t>Demonstrate the performance counter(s) are able to count the required or selected events.</t>
+  </si>
+  <si>
+    <t>Counters function as expected and give the EXACT count expected.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.1.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine Scratch Reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The test could be part of the CSR testcase which should prove all CSR and CSR access.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate the machine scratch register exists and is accessible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scratch is accessible,  read and write.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Machine Scratch Reg</t>
+  </si>
+  <si>
+    <t>The test could be part of the CSR testcase which should prove all CSR and CSR access.</t>
+  </si>
+  <si>
+    <t>Demonstrate the machine scratch register exists and is accessible.</t>
+  </si>
+  <si>
+    <t>Scratch is accessible,  read and write.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.1.15</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine Exception Program Counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This could be part of many tests, it will be required to use this value when servicing the exception, as it holds the reference to where to contiue from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that the mepc register contents have the correct program address of the current instruction when an exception happens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The contents of the mepc can be used to contiue from the exception point of the interrupted code sequence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Machine Exception Program Counter</t>
+  </si>
+  <si>
+    <t>This could be part of many tests, it will be required to use this value when servicing the exception, as it holds the reference to where to contiue from.</t>
+  </si>
+  <si>
+    <t>Demonstrate that the mepc register contents have the correct program address of the current instruction when an exception happens.</t>
+  </si>
+  <si>
+    <t>The contents of the mepc can be used to contiue from the exception point of the interrupted code sequence.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.1.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine Cause Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This testing should be part of all tests that handle exceptions.  The cause should be known and be simple to check.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that the mcause register contains the correct cause when an exception happens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The expected cause value is found in the mcause register when exceptions happen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Machine Cause Register</t>
+  </si>
+  <si>
+    <t>This testing should be part of all tests that handle exceptions.  The cause should be known and be simple to check.</t>
+  </si>
+  <si>
+    <t>Demonstrate that the mcause register contains the correct cause when an exception happens.</t>
+  </si>
+  <si>
+    <t>The expected cause value is found in the mcause register when exceptions happen.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.1.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine Trap Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented  ???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Machine Trap Value</t>
+  </si>
+  <si>
+    <t>Implemented  ???</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Environment Call and Breakpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part of debug module / mode testing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate the ECALL and EBREAK function as expected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Environment Call and Breakpoint</t>
+  </si>
+  <si>
+    <t>part of debug module / mode testing.</t>
+  </si>
+  <si>
+    <t>Demonstrate the ECALL and EBREAK function as expected</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.2.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Wait for Interrupt</t>
+    <t>Wait for Interrupt</t>
   </si>
   <si>
     <t xml:space="preserve">Create a test case that will demonstrate the waiting for interrupt.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Demonstrate that the wait for interrupt instruction functions as required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The wait for interrupt instruction waits …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Demonstrate that the wait for interrupt instruction functions as required.</t>
+  </si>
+  <si>
+    <t>The wait for interrupt instruction waits …</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the reset testing,  checks for the mcause register content should be done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that the reset mcause value is as expected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcause regiseter contains the correct cause value for reset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA-P
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>During the reset testing,  checks for the mcause register content should be done.</t>
+  </si>
+  <si>
+    <t>Demonstrate that the reset mcause value is as expected</t>
+  </si>
+  <si>
+    <t>mcause regiseter contains the correct cause value for reset.</t>
+  </si>
+  <si>
+    <t>ISA-P
 Chapter 3.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-Maskable Interrupts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With all interrupts disabled,  cause NMI and see that related registers contain the expected values, the interrupt can be serviced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrate that NMI are functioning as required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMI functions as expected.</t>
+    <t>Non-Maskable Interrupts</t>
+  </si>
+  <si>
+    <t>With all interrupts disabled,  cause NMI and see that related registers contain the expected values, the interrupt can be serviced.</t>
+  </si>
+  <si>
+    <t>Demonstrate that NMI are functioning as required.</t>
+  </si>
+  <si>
+    <t>NMI functions as expected.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -469,26 +936,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -501,7 +966,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -509,84 +974,319 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="96.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="17"/>
+    <col min="1" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="96.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="1025" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +1312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -632,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -652,7 +1352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -672,7 +1372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -692,7 +1392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -712,7 +1412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -732,7 +1432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -752,7 +1452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -772,7 +1472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -792,7 +1492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -812,7 +1512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -832,7 +1532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -852,7 +1552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -872,7 +1572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -892,7 +1592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -912,7 +1612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
@@ -932,7 +1632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -952,7 +1652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -972,7 +1672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -992,7 +1692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>103</v>
       </c>
@@ -1012,7 +1712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
@@ -1032,7 +1732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>113</v>
       </c>
@@ -1043,7 +1743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>116</v>
       </c>
@@ -1057,7 +1757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -1077,7 +1777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
@@ -1097,7 +1797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -1117,13 +1817,10 @@
         <v>13</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_instruction_exceptions.xlsx
+++ b/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_instruction_exceptions.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmartin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\GitHub\core-v-docs\verif\CV32E40P\VerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37485B68-4058-4BB4-84EC-B53B063243FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RV32IMFCZ" sheetId="1" r:id="rId1"/>
+    <sheet name="CV32E40P (RV32IMC)" sheetId="1" r:id="rId1"/>
+    <sheet name="DONOTDELETE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,465 +26,222 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Martin, John</author>
+    <author>tc={13674E3C-0528-4650-B7C1-C68DE9A49B3F}</author>
+    <author>tc={7B700813-2611-4E1C-BD9E-9B6CF7A48581}</author>
+    <author>tc={BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}</author>
+    <author>tc={4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}</author>
+    <author>tc={BE685513-1895-42E3-93EE-99CFAD928C96}</author>
+    <author>tc={8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}</author>
+    <author>tc={C4E1B028-4DFF-422A-9895-FD6D0BEBA878}</author>
+    <author>tc={E5B716A6-BB6D-4012-8C6F-65064D779290}</author>
+    <author>tc={B3A30BA7-29A6-40C6-8587-DDDF52024DA1}</author>
+    <author>tc={58EF0D8C-3AA0-4FF5-8D3D-D5627B903C45}</author>
+    <author>tc={D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}</author>
+    <author>tc={43E6C0DA-E02B-482D-948C-2363561CF5C1}</author>
+    <author>tc={81FC3993-72C4-4608-81DB-DDAA494B52D4}</author>
+    <author>tc={C18A497F-2C14-4C53-B519-65D111A98D26}</author>
+    <author>tc={62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}</author>
+    <author>tc={1253636C-DF86-496C-89B0-2181B1ECBC8D}</author>
+    <author>tc={805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}</author>
+    <author>tc={924CDB6A-00B9-4F98-970F-0E03AA2FF569}</author>
+    <author>tc={E966D528-8623-4C57-9DD5-8263B94B26ED}</author>
+    <author>tc={26BEC602-F548-4458-8901-212BEC528318}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{13674E3C-0528-4650-B7C1-C68DE9A49B3F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-The sheet labels the core as RV32IMFCZ which is not acurate.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The sheet labels the core as RV32IMFCZ which is not acurate.
+Reply:
+    Updated sheet label.</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{7B700813-2611-4E1C-BD9E-9B6CF7A48581}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Current implementation has no error signal coming from the bus. There is no situation that will cause a memory access exception.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Current implementation has no error signal coming from the bus. There is no situation that will cause a memory access exception.
+Reply:
+    Shall we strike-out this feature?</t>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="2" shapeId="0" xr:uid="{BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-I don’t think the core can throw a misaligned instruction exception. Perhaps this is a hole in the design or is simply not possible because of the hardwired bit in the PC and the encoding of all jumps and calls.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I don’t think the core can throw a misaligned instruction exception. Perhaps this is a hole in the design or is simply not possible because of the hardwired bit in the PC and the encoding of all jumps and calls.
+Reply:
+    I think you are right John.  I will ask Davide and Arjan about this.</t>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="3" shapeId="0" xr:uid="{4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-In particular the instruction you may expect an exception from (divide) does not throw an exception. Perhaps make sure this situation is covered?</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In particular the instruction you may expect an exception from (divide) does not throw an exception. Perhaps make sure this situation is covered?
+Reply:
+    Other than the specific case listed, what exactly is an "exception on ALU"?</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="4" shapeId="0" xr:uid="{BE685513-1895-42E3-93EE-99CFAD928C96}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-This sounds like a directed test. Is this going to be captured as part of the ISG with a cover point?</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This sounds like a directed test. Is this going to be captured as part of the ISG with a cover point?
+Reply:
+    Agree that is could be (should be?) a directed test.  Not sure if the Google ISG can generate these.</t>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="5" shapeId="0" xr:uid="{8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-I don't think the core can throw a missaligned data exception either. The core should issue two loads or stores in this case. Perhaps instead we should cover that a missaligned load/store happened.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I don't think the core can throw a missaligned data exception either. The core should issue two loads or stores in this case. Perhaps instead we should cover that a missaligned load/store happened.
+Reply:
+    Updated Goal and Pass/Fail criteria of this Feature.</t>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="6" shapeId="0" xr:uid="{C4E1B028-4DFF-422A-9895-FD6D0BEBA878}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Is there some level of overlap with a CSR test or is checking all the CSRs lumped into the exception test?</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is there some level of overlap with a CSR test or is checking all the CSRs lumped into the exception test?
+Reply:
+    This is an overlap with the CSR DV plan.  Having said that, I am happier to see overlapping Features in the DV plan - much better than underlapping.  Recommend we leave this in.</t>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="7" shapeId="0" xr:uid="{E5B716A6-BB6D-4012-8C6F-65064D779290}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-master mode? Should this be machine mode?</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    master mode? Should this be machine mode?
+Reply:
+    Good catch.  Fixed.  Also an overlap with CSR testing, which I am inclined to remove from this DV plan.</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="8" shapeId="0" xr:uid="{B3A30BA7-29A6-40C6-8587-DDDF52024DA1}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Why is this a directed test? With the ISS in the loop you can just run randomized code and collect coverage on overlap of exceptions.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Again, this seems to be about Interrupts, not Exceptions.</t>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="9" shapeId="0" xr:uid="{58EF0D8C-3AA0-4FF5-8D3D-D5627B903C45}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-I don't think there is an implementation of the timers outside of the interrupt coming into the core. That would be covered by the interrupt vplan.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Why is this a directed test? With the ISS in the loop you can just run randomized code and collect coverage on overlap of exceptions.
+Reply:
+    I do not know if the ISS attempts to 'present exceptions in the proper order'.   Section 3.1.9 of the Privileged Spec is about interrupts, not exceptions.</t>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="10" shapeId="0" xr:uid="{D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Then remove it from this vplan.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I don't think there is an implementation of the timers outside of the interrupt coming into the core. That would be covered by the interrupt vplan.
+Reply:
+    Agreed.</t>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="11" shapeId="0" xr:uid="{43E6C0DA-E02B-482D-948C-2363561CF5C1}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-There is a lot of overlap with the interrupt testing for these CSRs. This should all be covered by step and compare with the CSRs in the ISS.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Then remove it from this vplan.
+Reply:
+    Done</t>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="12" shapeId="0" xr:uid="{81FC3993-72C4-4608-81DB-DDAA494B52D4}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-It is not.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    There is a lot of overlap with the interrupt testing for these CSRs. This should all be covered by step and compare with the CSRs in the ISS.
+Reply:
+    Agreed.</t>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="13" shapeId="0" xr:uid="{C18A497F-2C14-4C53-B519-65D111A98D26}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Remove the line then? Why is ecall considered part of debug testing? This would usually be used by an OS to call into the kernel. It should throw an exception not enter debug mode. Likewise, you can put an ebreak in your code without interaction of the DM. It should throw the exception (if ebreakx in dcsr is left at 0) instead of entering debug mode. It sounds like that case should be covered here.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    It is not.
+Reply:
+    Thanks</t>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment ref="C24" authorId="14" shapeId="0" xr:uid="{62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-I don't think this belongs in the exception vplan.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Remove the line then? Why is ecall considered part of debug testing? This would usually be used by an OS to call into the kernel. It should throw an exception not enter debug mode. Likewise, you can put an ebreak in your code without interaction of the DM. It should throw the exception (if ebreakx in dcsr is left at 0) instead of entering debug mode. It sounds like that case should be covered here.
+Reply:
+    Done</t>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
+    <comment ref="C25" authorId="15" shapeId="0" xr:uid="{1253636C-DF86-496C-89B0-2181B1ECBC8D}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Yes it waits but then what?</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I don't think this belongs in the exception vplan.
+Reply:
+    Agreed.  I commented, will strike it if the team agrees.</t>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="E25" authorId="16" shapeId="0" xr:uid="{805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Yeah mcause is used by the exception and interrupt systems but isn't it better to cover the reset value of all CSRs in the CSR verification?</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Yes it waits but then what?
+Reply:
+    For an interrupt or forever if MIE is 0x0.  This should be part of CSR function testing.</t>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="17" shapeId="0" xr:uid="{924CDB6A-00B9-4F98-970F-0E03AA2FF569}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-NMI was removed. This wouldn't belong in the exceptions vplan either.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Yeah mcause is used by the exception and interrupt systems but isn't it better to cover the reset value of all CSRs in the CSR verification?
+Reply:
+    Indeed.  Already there.</t>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="18" shapeId="0" xr:uid="{E966D528-8623-4C57-9DD5-8263B94B26ED}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin, John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-There is instruction, load and store fault exceptions in the RTL but it may not be coverable since there is no error signal on either bus. Assertion or exclusion?</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    NMI was removed. This wouldn't belong in the exceptions vplan either.</t>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="19" shapeId="0" xr:uid="{26BEC602-F548-4458-8901-212BEC528318}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    There is instruction, load and store fault exceptions in the RTL but it may not be coverable since there is no error signal on either bus. Assertion or exclusion?</t>
       </text>
     </comment>
   </commentList>
@@ -490,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="164">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -505,9 +264,6 @@
   </si>
   <si>
     <t>Pass/Fail Critiera</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Coverage Method</t>
@@ -532,9 +288,6 @@
     <t>Exceptions happen at the expected times and can be serviced.</t>
   </si>
   <si>
-    <t>sim / random</t>
-  </si>
-  <si>
     <t>ISA
 Chapter 1.5</t>
   </si>
@@ -607,12 +360,6 @@
     <t>This test case will cause address-miss-align exceptions by corrupting the code.  This may require "byte" addressing, cause of the "C" functionality.</t>
   </si>
   <si>
-    <t>Demonstrate that miss-aligned load and store addresses cause exceptions.</t>
-  </si>
-  <si>
-    <t>Attempted Load / Store accesses to miss-aligned addresses cause exceptions.</t>
-  </si>
-  <si>
     <t>ISA
 Chapter 5.2</t>
   </si>
@@ -661,9 +408,6 @@
     <t>The expected exceptions happen and can be serviced.</t>
   </si>
   <si>
-    <t>sim / directed</t>
-  </si>
-  <si>
     <t>ISA
 Chapter 11.7</t>
   </si>
@@ -728,16 +472,10 @@
     <t>Timeout Wait</t>
   </si>
   <si>
-    <t>Time out wait is not implemented in a system with only master mode.</t>
-  </si>
-  <si>
     <t>Demonstrate that the TW bit is zero and can not be set.</t>
   </si>
   <si>
     <t>The TW bit is zero and can not be changed.</t>
-  </si>
-  <si>
-    <t>sim</t>
   </si>
   <si>
     <t>ISA-P
@@ -888,9 +626,6 @@
     <t>Demonstrate that the wait for interrupt instruction functions as required.</t>
   </si>
   <si>
-    <t>The wait for interrupt instruction waits …</t>
-  </si>
-  <si>
     <t>ISA-P
 Chapter 3.3</t>
   </si>
@@ -904,9 +639,6 @@
     <t>Demonstrate that the reset mcause value is as expected</t>
   </si>
   <si>
-    <t>mcause regiseter contains the correct cause value for reset.</t>
-  </si>
-  <si>
     <t>ISA-P
 Chapter 3.4</t>
   </si>
@@ -921,13 +653,127 @@
   </si>
   <si>
     <t>NMI functions as expected.</t>
+  </si>
+  <si>
+    <t>Pass/Fail Criteria</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Self Checking Test</t>
+  </si>
+  <si>
+    <t>RISC-V Compliance</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Signature Check</t>
+  </si>
+  <si>
+    <t>OpenHW Compliance</t>
+  </si>
+  <si>
+    <t>Functional Coverage</t>
+  </si>
+  <si>
+    <t>Check against ISS</t>
+  </si>
+  <si>
+    <t>Directed Self-Checking</t>
+  </si>
+  <si>
+    <t>Assertion Coverage</t>
+  </si>
+  <si>
+    <t>Check against RM</t>
+  </si>
+  <si>
+    <t>Directed Non-Self-Checking</t>
+  </si>
+  <si>
+    <t>Code Coverage</t>
+  </si>
+  <si>
+    <t>Assertion Check</t>
+  </si>
+  <si>
+    <t>Constrained-Random</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Any/All</t>
+  </si>
+  <si>
+    <t>ENV capability, not specific test</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Coverage of misaligned load/store on memory interface</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Demonstrate that miss-aligned access results in to load/stores.</t>
+  </si>
+  <si>
+    <t>Attempted Load / Store cycles complete as noral</t>
+  </si>
+  <si>
+    <t>Time out wait is not implemented in a system with only machine mode.</t>
+  </si>
+  <si>
+    <t>This is fully covered in CSR DV plan</t>
+  </si>
+  <si>
+    <t>Further investigation of how to implement and cover this Feature is required.</t>
+  </si>
+  <si>
+    <t>This is an overlap with the CSR DV plan.</t>
+  </si>
+  <si>
+    <t>Feature not supported in CV32E40P</t>
+  </si>
+  <si>
+    <t>CV32E40P is a machine-mode only core.</t>
+  </si>
+  <si>
+    <t>Should we strike this Feature from this DV plan?</t>
+  </si>
+  <si>
+    <t>Covered in Interrupt DV Plan</t>
+  </si>
+  <si>
+    <t>Covered in CSR DV Plan</t>
+  </si>
+  <si>
+    <t>ISS does not model alll counters</t>
+  </si>
+  <si>
+    <t>Not implemented.</t>
+  </si>
+  <si>
+    <t>See Debug DV plan</t>
+  </si>
+  <si>
+    <t>Does not actually belogn in Exceptions DV plan</t>
+  </si>
+  <si>
+    <t>The wait for interrupt instruction waits for an external interupt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -950,19 +796,32 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -977,13 +836,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,6 +881,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mike" id="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" userId="Mike" providerId="None"/>
+  <person displayName="Martin, John" id="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" userId="Martin, John" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1263,14 +1151,130 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{13674E3C-0528-4650-B7C1-C68DE9A49B3F}">
+    <text>The sheet labels the core as RV32IMFCZ which is not acurate.</text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2020-09-09T19:08:19.71" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{34FD608E-A4EE-40C3-9CAA-8FA59456C4BF}" parentId="{13674E3C-0528-4650-B7C1-C68DE9A49B3F}">
+    <text>Updated sheet label.</text>
+  </threadedComment>
+  <threadedComment ref="C2" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{7B700813-2611-4E1C-BD9E-9B6CF7A48581}">
+    <text>Current implementation has no error signal coming from the bus. There is no situation that will cause a memory access exception.</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2020-09-09T15:54:45.06" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{30C932CF-0ED8-489D-969A-0201D73FDD76}" parentId="{7B700813-2611-4E1C-BD9E-9B6CF7A48581}">
+    <text>Shall we strike-out this feature?</text>
+  </threadedComment>
+  <threadedComment ref="C4" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}">
+    <text>I don’t think the core can throw a misaligned instruction exception. Perhaps this is a hole in the design or is simply not possible because of the hardwired bit in the PC and the encoding of all jumps and calls.</text>
+  </threadedComment>
+  <threadedComment ref="C4" dT="2020-09-09T16:22:25.47" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{CB7A4571-A687-4388-934D-7BBB783D1BA8}" parentId="{BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}">
+    <text>I think you are right John.  I will ask Davide and Arjan about this.</text>
+  </threadedComment>
+  <threadedComment ref="D5" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}">
+    <text>In particular the instruction you may expect an exception from (divide) does not throw an exception. Perhaps make sure this situation is covered?</text>
+  </threadedComment>
+  <threadedComment ref="D5" dT="2020-09-09T16:25:40.17" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{6FEDAC00-D436-4F86-9C61-B77A5690DCF9}" parentId="{4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}">
+    <text>Other than the specific case listed, what exactly is an "exception on ALU"?</text>
+  </threadedComment>
+  <threadedComment ref="F6" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{BE685513-1895-42E3-93EE-99CFAD928C96}">
+    <text>This sounds like a directed test. Is this going to be captured as part of the ISG with a cover point?</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2020-09-09T16:28:44.86" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{64ABDFEB-0E6D-4916-891F-0B310DAD3B1D}" parentId="{BE685513-1895-42E3-93EE-99CFAD928C96}">
+    <text>Agree that is could be (should be?) a directed test.  Not sure if the Google ISG can generate these.</text>
+  </threadedComment>
+  <threadedComment ref="C7" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}">
+    <text>I don't think the core can throw a missaligned data exception either. The core should issue two loads or stores in this case. Perhaps instead we should cover that a missaligned load/store happened.</text>
+  </threadedComment>
+  <threadedComment ref="C7" dT="2020-09-09T16:35:46.65" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{CB3FBEAE-BC30-460A-B892-2CAB056B8281}" parentId="{8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}">
+    <text>Updated Goal and Pass/Fail criteria of this Feature.</text>
+  </threadedComment>
+  <threadedComment ref="C13" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{C4E1B028-4DFF-422A-9895-FD6D0BEBA878}">
+    <text>Is there some level of overlap with a CSR test or is checking all the CSRs lumped into the exception test?</text>
+  </threadedComment>
+  <threadedComment ref="C13" dT="2020-09-09T16:37:43.13" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{D86872AC-2491-418C-987F-385539ACA7C1}" parentId="{C4E1B028-4DFF-422A-9895-FD6D0BEBA878}">
+    <text>This is an overlap with the CSR DV plan.  Having said that, I am happier to see overlapping Features in the DV plan - much better than underlapping.  Recommend we leave this in.</text>
+  </threadedComment>
+  <threadedComment ref="C15" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{E5B716A6-BB6D-4012-8C6F-65064D779290}">
+    <text>master mode? Should this be machine mode?</text>
+  </threadedComment>
+  <threadedComment ref="C15" dT="2020-09-09T16:39:35.42" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{0EE8F63A-05EF-445C-9220-A48BCAF05184}" parentId="{E5B716A6-BB6D-4012-8C6F-65064D779290}">
+    <text>Good catch.  Fixed.  Also an overlap with CSR testing, which I am inclined to remove from this DV plan.</text>
+  </threadedComment>
+  <threadedComment ref="C16" dT="2020-09-09T16:54:43.47" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{B3A30BA7-29A6-40C6-8587-DDDF52024DA1}">
+    <text>Again, this seems to be about Interrupts, not Exceptions.</text>
+  </threadedComment>
+  <threadedComment ref="C17" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{58EF0D8C-3AA0-4FF5-8D3D-D5627B903C45}">
+    <text>Why is this a directed test? With the ISS in the loop you can just run randomized code and collect coverage on overlap of exceptions.</text>
+  </threadedComment>
+  <threadedComment ref="C17" dT="2020-09-09T16:51:22.41" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{DB31D056-07E9-4701-8545-1E75EEEEE9A9}" parentId="{58EF0D8C-3AA0-4FF5-8D3D-D5627B903C45}">
+    <text>I do not know if the ISS attempts to 'present exceptions in the proper order'.   Section 3.1.9 of the Privileged Spec is about interrupts, not exceptions.</text>
+  </threadedComment>
+  <threadedComment ref="C18" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}">
+    <text>I don't think there is an implementation of the timers outside of the interrupt coming into the core. That would be covered by the interrupt vplan.</text>
+  </threadedComment>
+  <threadedComment ref="C18" dT="2020-09-09T16:55:49.90" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{6149191B-865F-4BC5-B294-0C0AE75A442C}" parentId="{D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}">
+    <text>Agreed.</text>
+  </threadedComment>
+  <threadedComment ref="C20" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{43E6C0DA-E02B-482D-948C-2363561CF5C1}">
+    <text>Then remove it from this vplan.</text>
+  </threadedComment>
+  <threadedComment ref="C20" dT="2020-09-09T16:56:37.72" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{19466A9E-0420-4249-8A86-399715AFBE02}" parentId="{43E6C0DA-E02B-482D-948C-2363561CF5C1}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="C21" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{81FC3993-72C4-4608-81DB-DDAA494B52D4}">
+    <text>There is a lot of overlap with the interrupt testing for these CSRs. This should all be covered by step and compare with the CSRs in the ISS.</text>
+  </threadedComment>
+  <threadedComment ref="C21" dT="2020-09-09T16:59:17.26" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{AAA5F148-4A01-4C97-85E3-D83B9F4D2E14}" parentId="{81FC3993-72C4-4608-81DB-DDAA494B52D4}">
+    <text>Agreed.</text>
+  </threadedComment>
+  <threadedComment ref="C23" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{C18A497F-2C14-4C53-B519-65D111A98D26}">
+    <text>It is not.</text>
+  </threadedComment>
+  <threadedComment ref="C23" dT="2020-09-09T16:59:52.68" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{46B91FE2-0E7D-46C9-8A8C-7FEA9527E055}" parentId="{C18A497F-2C14-4C53-B519-65D111A98D26}">
+    <text>Thanks</text>
+  </threadedComment>
+  <threadedComment ref="C24" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}">
+    <text>Remove the line then? Why is ecall considered part of debug testing? This would usually be used by an OS to call into the kernel. It should throw an exception not enter debug mode. Likewise, you can put an ebreak in your code without interaction of the DM. It should throw the exception (if ebreakx in dcsr is left at 0) instead of entering debug mode. It sounds like that case should be covered here.</text>
+  </threadedComment>
+  <threadedComment ref="C24" dT="2020-09-09T17:00:33.27" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{54926BFE-99FB-4DCC-92D8-CBD5C15B03FC}" parentId="{62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="C25" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{1253636C-DF86-496C-89B0-2181B1ECBC8D}">
+    <text>I don't think this belongs in the exception vplan.</text>
+  </threadedComment>
+  <threadedComment ref="C25" dT="2020-09-09T17:01:38.33" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{06F811A4-F084-433D-8856-702D2BB4C710}" parentId="{1253636C-DF86-496C-89B0-2181B1ECBC8D}">
+    <text>Agreed.  I commented, will strike it if the team agrees.</text>
+  </threadedComment>
+  <threadedComment ref="E25" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}">
+    <text>Yes it waits but then what?</text>
+  </threadedComment>
+  <threadedComment ref="E25" dT="2020-09-09T17:08:10.54" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{D7FD1696-B03B-466B-8289-22D0AE4DD9CD}" parentId="{805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}">
+    <text>For an interrupt or forever if MIE is 0x0.  This should be part of CSR function testing.</text>
+  </threadedComment>
+  <threadedComment ref="C26" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{924CDB6A-00B9-4F98-970F-0E03AA2FF569}">
+    <text>Yeah mcause is used by the exception and interrupt systems but isn't it better to cover the reset value of all CSRs in the CSR verification?</text>
+  </threadedComment>
+  <threadedComment ref="C26" dT="2020-09-09T17:08:55.07" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{D6CCE53E-FCDE-4368-B0F7-DCA03C30D11C}" parentId="{924CDB6A-00B9-4F98-970F-0E03AA2FF569}">
+    <text>Indeed.  Already there.</text>
+  </threadedComment>
+  <threadedComment ref="B27" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{E966D528-8623-4C57-9DD5-8263B94B26ED}">
+    <text>NMI was removed. This wouldn't belong in the exceptions vplan either.</text>
+  </threadedComment>
+  <threadedComment ref="B28" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{26BEC602-F548-4458-8901-212BEC528318}">
+    <text>There is instruction, load and store fault exceptions in the RTL but it may not be coverable since there is no error signal on either bus. Assertion or exclusion?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,12 +1285,12 @@
     <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="96.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="7" customWidth="1"/>
     <col min="10" max="1025" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1303,524 +1307,723 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="I14" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="I15" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="I18" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="I20" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="I24" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="E26" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="E27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25"/>
+      <c r="I27" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0267C4F-C3CC-42A6-BBFB-5EFD1B8A58DA}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$C$3:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F134</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CDE65B41-9EC1-43E3-A795-CF2352E73DD7}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$E$3:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G22 G24:G119</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07BF736-45A7-4385-AF93-AF18973F82F3}">
+  <dimension ref="A2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_instruction_exceptions.xlsx
+++ b/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_instruction_exceptions.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\GitHub\core-v-docs\verif\CV32E40P\VerificationPlan\base_instruction_set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37485B68-4058-4BB4-84EC-B53B063243FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B795CF52-0154-4D27-9256-873727CE39D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CV32E40P (RV32IMC)" sheetId="1" r:id="rId1"/>
-    <sheet name="DONOTDELETE" sheetId="2" r:id="rId2"/>
+    <sheet name="CV32E40P Instruction Exceptions" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="4" r:id="rId2"/>
+    <sheet name="DONOTDELETE" sheetId="2" r:id="rId3"/>
+    <sheet name="Permutations" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,13 +32,13 @@
   <authors>
     <author>tc={13674E3C-0528-4650-B7C1-C68DE9A49B3F}</author>
     <author>tc={7B700813-2611-4E1C-BD9E-9B6CF7A48581}</author>
+    <author>tc={7843569F-3E9B-4D24-9B0D-6E4BE0208E67}</author>
     <author>tc={BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}</author>
     <author>tc={4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}</author>
-    <author>tc={BE685513-1895-42E3-93EE-99CFAD928C96}</author>
+    <author>tc={A715851D-CFEA-4A2B-B1C9-D26ADDED9974}</author>
     <author>tc={8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}</author>
     <author>tc={C4E1B028-4DFF-422A-9895-FD6D0BEBA878}</author>
     <author>tc={E5B716A6-BB6D-4012-8C6F-65064D779290}</author>
-    <author>tc={B3A30BA7-29A6-40C6-8587-DDDF52024DA1}</author>
     <author>tc={58EF0D8C-3AA0-4FF5-8D3D-D5627B903C45}</author>
     <author>tc={D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}</author>
     <author>tc={43E6C0DA-E02B-482D-948C-2363561CF5C1}</author>
@@ -47,7 +49,18 @@
     <author>tc={805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}</author>
     <author>tc={924CDB6A-00B9-4F98-970F-0E03AA2FF569}</author>
     <author>tc={E966D528-8623-4C57-9DD5-8263B94B26ED}</author>
+    <author>tc={DAB6B4FD-5800-4398-8950-BD8D478B7E78}</author>
+    <author>tc={D2EBAD88-0CC9-4738-AD01-815EC1346E43}</author>
+    <author>tc={E6D893DA-B8FD-4D91-90F6-A348C0687C61}</author>
+    <author>tc={A8583B8C-5533-48A8-8EBC-7AF8D7D3D527}</author>
+    <author>tc={4D6E6CCA-D061-4A5C-BB50-B0938F3392F4}</author>
+    <author>tc={BCD354B1-EB2C-4CCA-BE3C-B04CE96EA505}</author>
     <author>tc={26BEC602-F548-4458-8901-212BEC528318}</author>
+    <author>tc={8522CE2E-DC2C-4D28-A792-FB43D5ED3A16}</author>
+    <author>tc={79A07E8F-AA10-48EA-BC1A-95436DDCFD9B}</author>
+    <author>tc={C1CB7F91-3F1D-469B-A9B2-DAB105CE80A8}</author>
+    <author>tc={5D450191-6596-42AC-9366-52C35AA4837F}</author>
+    <author>tc={C0D41C0F-9331-4AB6-9CF1-21E7801CC2EA}</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{13674E3C-0528-4650-B7C1-C68DE9A49B3F}">
@@ -70,37 +83,51 @@
     Shall we strike-out this feature?</t>
       </text>
     </comment>
-    <comment ref="C4" authorId="2" shapeId="0" xr:uid="{BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}">
+    <comment ref="B3" authorId="2" shapeId="0" xr:uid="{7843569F-3E9B-4D24-9B0D-6E4BE0208E67}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    How do we present illegal instructions to the core?  Will the Google ISG actually generate illegal instructions?   How are these handled by the toolchain?
+Reply:
+    David has a script that deliberately generates mis-formed instructions.</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="3" shapeId="0" xr:uid="{BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I don’t think the core can throw a misaligned instruction exception. Perhaps this is a hole in the design or is simply not possible because of the hardwired bit in the PC and the encoding of all jumps and calls.
 Reply:
-    I think you are right John.  I will ask Davide and Arjan about this.</t>
+    I think you are right John.  I will ask Davide and Arjan about this.
+Reply:
+    John is correct.</t>
       </text>
     </comment>
-    <comment ref="D5" authorId="3" shapeId="0" xr:uid="{4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}">
+    <comment ref="D5" authorId="4" shapeId="0" xr:uid="{4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     In particular the instruction you may expect an exception from (divide) does not throw an exception. Perhaps make sure this situation is covered?
 Reply:
-    Other than the specific case listed, what exactly is an "exception on ALU"?</t>
+    Other than the specific case listed, what exactly is an "exception on ALU"?
+Reply:
+    There are no ALU exceptions in CV32E40P</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="4" shapeId="0" xr:uid="{BE685513-1895-42E3-93EE-99CFAD928C96}">
+    <comment ref="D6" authorId="5" shapeId="0" xr:uid="{A715851D-CFEA-4A2B-B1C9-D26ADDED9974}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This sounds like a directed test. Is this going to be captured as part of the ISG with a cover point?
+    Question: can your test-program throw an error if an unexpected exception occurs?   Throw an error if an expected exception does not occur?
 Reply:
-    Agree that is could be (should be?) a directed test.  Not sure if the Google ISG can generate these.</t>
+    Not required - ISS will mis-match on mepc</t>
       </text>
     </comment>
-    <comment ref="C7" authorId="5" shapeId="0" xr:uid="{8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}">
+    <comment ref="C7" authorId="6" shapeId="0" xr:uid="{8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -110,7 +137,7 @@
     Updated Goal and Pass/Fail criteria of this Feature.</t>
       </text>
     </comment>
-    <comment ref="C13" authorId="6" shapeId="0" xr:uid="{C4E1B028-4DFF-422A-9895-FD6D0BEBA878}">
+    <comment ref="C13" authorId="7" shapeId="0" xr:uid="{C4E1B028-4DFF-422A-9895-FD6D0BEBA878}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +147,7 @@
     This is an overlap with the CSR DV plan.  Having said that, I am happier to see overlapping Features in the DV plan - much better than underlapping.  Recommend we leave this in.</t>
       </text>
     </comment>
-    <comment ref="C15" authorId="7" shapeId="0" xr:uid="{E5B716A6-BB6D-4012-8C6F-65064D779290}">
+    <comment ref="C15" authorId="8" shapeId="0" xr:uid="{E5B716A6-BB6D-4012-8C6F-65064D779290}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,14 +155,6 @@
     master mode? Should this be machine mode?
 Reply:
     Good catch.  Fixed.  Also an overlap with CSR testing, which I am inclined to remove from this DV plan.</t>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="8" shapeId="0" xr:uid="{B3A30BA7-29A6-40C6-8587-DDDF52024DA1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Again, this seems to be about Interrupts, not Exceptions.</t>
       </text>
     </comment>
     <comment ref="C17" authorId="9" shapeId="0" xr:uid="{58EF0D8C-3AA0-4FF5-8D3D-D5627B903C45}">
@@ -148,7 +167,7 @@
     I do not know if the ISS attempts to 'present exceptions in the proper order'.   Section 3.1.9 of the Privileged Spec is about interrupts, not exceptions.</t>
       </text>
     </comment>
-    <comment ref="C18" authorId="10" shapeId="0" xr:uid="{D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}">
+    <comment ref="C19" authorId="10" shapeId="0" xr:uid="{D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -158,7 +177,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="C20" authorId="11" shapeId="0" xr:uid="{43E6C0DA-E02B-482D-948C-2363561CF5C1}">
+    <comment ref="C21" authorId="11" shapeId="0" xr:uid="{43E6C0DA-E02B-482D-948C-2363561CF5C1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +187,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="C21" authorId="12" shapeId="0" xr:uid="{81FC3993-72C4-4608-81DB-DDAA494B52D4}">
+    <comment ref="C22" authorId="12" shapeId="0" xr:uid="{81FC3993-72C4-4608-81DB-DDAA494B52D4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -178,7 +197,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="C23" authorId="13" shapeId="0" xr:uid="{C18A497F-2C14-4C53-B519-65D111A98D26}">
+    <comment ref="C25" authorId="13" shapeId="0" xr:uid="{C18A497F-2C14-4C53-B519-65D111A98D26}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -188,7 +207,7 @@
     Thanks</t>
       </text>
     </comment>
-    <comment ref="C24" authorId="14" shapeId="0" xr:uid="{62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}">
+    <comment ref="C26" authorId="14" shapeId="0" xr:uid="{62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -198,7 +217,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="C25" authorId="15" shapeId="0" xr:uid="{1253636C-DF86-496C-89B0-2181B1ECBC8D}">
+    <comment ref="C27" authorId="15" shapeId="0" xr:uid="{1253636C-DF86-496C-89B0-2181B1ECBC8D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +227,7 @@
     Agreed.  I commented, will strike it if the team agrees.</t>
       </text>
     </comment>
-    <comment ref="E25" authorId="16" shapeId="0" xr:uid="{805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}">
+    <comment ref="E27" authorId="16" shapeId="0" xr:uid="{805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -218,7 +237,7 @@
     For an interrupt or forever if MIE is 0x0.  This should be part of CSR function testing.</t>
       </text>
     </comment>
-    <comment ref="C26" authorId="17" shapeId="0" xr:uid="{924CDB6A-00B9-4F98-970F-0E03AA2FF569}">
+    <comment ref="C28" authorId="17" shapeId="0" xr:uid="{924CDB6A-00B9-4F98-970F-0E03AA2FF569}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -228,7 +247,7 @@
     Indeed.  Already there.</t>
       </text>
     </comment>
-    <comment ref="B27" authorId="18" shapeId="0" xr:uid="{E966D528-8623-4C57-9DD5-8263B94B26ED}">
+    <comment ref="B29" authorId="18" shapeId="0" xr:uid="{E966D528-8623-4C57-9DD5-8263B94B26ED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -236,7 +255,57 @@
     NMI was removed. This wouldn't belong in the exceptions vplan either.</t>
       </text>
     </comment>
-    <comment ref="B28" authorId="19" shapeId="0" xr:uid="{26BEC602-F548-4458-8901-212BEC528318}">
+    <comment ref="B30" authorId="19" shapeId="0" xr:uid="{DAB6B4FD-5800-4398-8950-BD8D478B7E78}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I like this Feature, but its not clear how the test-program is implemented.
+Reply:
+    Two options: (1) encode the expected exception in the handler, or (2) compare against RM.</t>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="20" shapeId="0" xr:uid="{D2EBAD88-0CC9-4738-AD01-815EC1346E43}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ordinarily this would be part of a CSR DV plan, but getting bits set in mcause is better done as part of the exceptions DV plan.</t>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="21" shapeId="0" xr:uid="{E6D893DA-B8FD-4D91-90F6-A348C0687C61}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Debug DV plan</t>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="22" shapeId="0" xr:uid="{A8583B8C-5533-48A8-8EBC-7AF8D7D3D527}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Debug DV plan</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="23" shapeId="0" xr:uid="{4D6E6CCA-D061-4A5C-BB50-B0938F3392F4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Maybe already covered in Debug plan (need to check).</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="24" shapeId="0" xr:uid="{BCD354B1-EB2C-4CCA-BE3C-B04CE96EA505}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Debug DV plan?</t>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="25" shapeId="0" xr:uid="{26BEC602-F548-4458-8901-212BEC528318}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -244,12 +313,52 @@
     There is instruction, load and store fault exceptions in the RTL but it may not be coverable since there is no error signal on either bus. Assertion or exclusion?</t>
       </text>
     </comment>
+    <comment ref="B39" authorId="26" shapeId="0" xr:uid="{8522CE2E-DC2C-4D28-A792-FB43D5ED3A16}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I would recommend we track this in the CSR DV plan.  Same for Features in rows 9..11.</t>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="27" shapeId="0" xr:uid="{79A07E8F-AA10-48EA-BC1A-95436DDCFD9B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not implemented in CV32E40P.</t>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="28" shapeId="0" xr:uid="{C1CB7F91-3F1D-469B-A9B2-DAB105CE80A8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Actually, HPMs are implemented.   See the "Counters" DV Plan</t>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="29" shapeId="0" xr:uid="{5D450191-6596-42AC-9366-52C35AA4837F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CSR DV Plan</t>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="30" shapeId="0" xr:uid="{C0D41C0F-9331-4AB6-9CF1-21E7801CC2EA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CSR DV plan</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="273">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -288,20 +397,7 @@
     <t>Exceptions happen at the expected times and can be serviced.</t>
   </si>
   <si>
-    <t>ISA
-Chapter 1.5</t>
-  </si>
-  <si>
     <t>Illegal Instructions</t>
-  </si>
-  <si>
-    <t>This test will cause exceptions by adding illegal instructions into the code stream.  This will include the all zeros 31-0 &amp; 15-0 coding.</t>
-  </si>
-  <si>
-    <t>Demonstrate that all illegal instructions cause an exception</t>
-  </si>
-  <si>
-    <t>Exceptions happen when an illegal instruction is encountered.</t>
   </si>
   <si>
     <t>ISA
@@ -345,35 +441,13 @@
     <t>Load x0</t>
   </si>
   <si>
-    <t>The test case will attempt to load to x0 and service the expected exception.</t>
-  </si>
-  <si>
-    <t>Demonstrate that a Load instruction with a target of x0 will cause an exception.</t>
-  </si>
-  <si>
-    <t>An attempted Load to x0 causes an exception.</t>
-  </si>
-  <si>
     <t>Load / Store Miss-align</t>
   </si>
   <si>
     <t>This test case will cause address-miss-align exceptions by corrupting the code.  This may require "byte" addressing, cause of the "C" functionality.</t>
   </si>
   <si>
-    <t>ISA
-Chapter 5.2</t>
-  </si>
-  <si>
     <t>Reserved Instructions</t>
-  </si>
-  <si>
-    <t>Create a test case with the "old" coding of theses instructions.  They are reserved now and should be in this design, illegal instructions.</t>
-  </si>
-  <si>
-    <t>Demonstrate that the SLLIW, SRLIW and SRAIW instructions are not implemented.</t>
-  </si>
-  <si>
-    <t>When the coding of one of these instructions is encountered an exception happens.</t>
   </si>
   <si>
     <t>ISA
@@ -478,20 +552,7 @@
     <t>The TW bit is zero and can not be changed.</t>
   </si>
   <si>
-    <t>ISA-P
-Chapter 3.1.7</t>
-  </si>
-  <si>
     <t>Machine Trap-Vector</t>
-  </si>
-  <si>
-    <t>Prove all vectors of a vectored implementation functions as expected.  Also, if available, prove the non-vectored configuration works as well.</t>
-  </si>
-  <si>
-    <t>Demonstrate that the trap vector register contents are used as the start address of a trap handler.</t>
-  </si>
-  <si>
-    <t>Exceptions cause the address contained in the mtvec register, to be used for the start of exception code.</t>
   </si>
   <si>
     <t>ISA-P
@@ -721,12 +782,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Demonstrate that miss-aligned access results in to load/stores.</t>
-  </si>
-  <si>
-    <t>Attempted Load / Store cycles complete as noral</t>
-  </si>
-  <si>
     <t>Time out wait is not implemented in a system with only machine mode.</t>
   </si>
   <si>
@@ -745,9 +800,6 @@
     <t>CV32E40P is a machine-mode only core.</t>
   </si>
   <si>
-    <t>Should we strike this Feature from this DV plan?</t>
-  </si>
-  <si>
     <t>Covered in Interrupt DV Plan</t>
   </si>
   <si>
@@ -767,13 +819,411 @@
   </si>
   <si>
     <t>The wait for interrupt instruction waits for an external interupt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following table lists the allowed permutations of exceptions.  </t>
+  </si>
+  <si>
+    <t>Note that instr break, ebreak, and load/store break have Exception code=3</t>
+  </si>
+  <si>
+    <t>Grayed rows are not possible or create no exception.</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>illegal inst</t>
+  </si>
+  <si>
+    <t>ebreak</t>
+  </si>
+  <si>
+    <t>instr break</t>
+  </si>
+  <si>
+    <t>ecall</t>
+  </si>
+  <si>
+    <t>no exception</t>
+  </si>
+  <si>
+    <t>only 1 exception</t>
+  </si>
+  <si>
+    <t>instruction break has priority</t>
+  </si>
+  <si>
+    <t>can't have ecall and ebreak at the same address</t>
+  </si>
+  <si>
+    <t>HW breakpoint on address of ebreak - same exception so maybe it's okay not to test</t>
+  </si>
+  <si>
+    <t>ecall should not generate an illegal instruction</t>
+  </si>
+  <si>
+    <t>possible to set a breakpoint on a csrr/csrw that would trigger an illegal instruction exception</t>
+  </si>
+  <si>
+    <t>ebreak should not generate an illegal instruction</t>
+  </si>
+  <si>
+    <t>Directed</t>
+  </si>
+  <si>
+    <t>Test Coverage</t>
+  </si>
+  <si>
+    <t>ISA Chapter 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Values that do not have an instruction they correlate to (including 0x00000000 and 0x0000) should generate illegal instruction exceptions</t>
+  </si>
+  <si>
+    <t>Demonstrate that instruction values that don’t have an associated functionality generate an illegal instruction exception when run</t>
+  </si>
+  <si>
+    <t>Exceptions occur when
+unrecognized instruction
+values are run (including 0x00000000, and 0xXXXX0000, where XXXX!=0000)</t>
+  </si>
+  <si>
+    <t>Constrained Random</t>
+  </si>
+  <si>
+    <t>ISA Chapter 2.6</t>
+  </si>
+  <si>
+    <t>x0 cannot have a value loaded into it but does not generate an exception when that is attempted, as the exception is not implemented</t>
+  </si>
+  <si>
+    <t>Show that loading to x0 does not cause an 
+exception</t>
+  </si>
+  <si>
+    <t>Exceptions do not occur when x0 is loaded to by any load instructions</t>
+  </si>
+  <si>
+    <t>ISA Chapter 5.2</t>
+  </si>
+  <si>
+    <t>Reserved instruction from past implementations (SLLIW, SRLIW, SRAIW) should generate exceptions when attempting to use them</t>
+  </si>
+  <si>
+    <t>Show that SLLIW, SRLIW, and SRAIW generate exceptions on attempted use</t>
+  </si>
+  <si>
+    <t>Exceptions occur when using SLLIW, SRLIW, SRAIW instructions</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 2.1</t>
+  </si>
+  <si>
+    <t>All unimplemented CSRs should generate an illegal instruction exception on attempted access</t>
+  </si>
+  <si>
+    <t>Show that all unimplemented CSRs generate
+exceptions when attempting to be accessed</t>
+  </si>
+  <si>
+    <t>Exceptions occur when accessing any unimplemented CSRs</t>
+  </si>
+  <si>
+    <t>Read only CSR</t>
+  </si>
+  <si>
+    <t>Attempts to write a read-only CSR wil cause an illegal instruction exception</t>
+  </si>
+  <si>
+    <t>Show that writing a read-only CSR register will generate an illegal instruction exception</t>
+  </si>
+  <si>
+    <t>Show that exceptions occur when writing a read-only CSR, and register is unmodified</t>
+  </si>
+  <si>
+    <t>Read only bitfields in
+read/write CSRs</t>
+  </si>
+  <si>
+    <t>Attempting to write to a read-only bitfield in a read/write CSR will be ignored</t>
+  </si>
+  <si>
+    <t>Writing to read-only bitfields in read/write CSRs will not generate an exception, and said writes are ignored</t>
+  </si>
+  <si>
+    <t>No exceptions occur, and writes are ignored to read-only bitfields</t>
+  </si>
+  <si>
+    <t>CSR Fields Not
+Implemented</t>
+  </si>
+  <si>
+    <t>Unimplemented CSR bitfields should ignore all writes and read as 0</t>
+  </si>
+  <si>
+    <t>Show that unimplemented bitfields of CSRs ignore writes, read as 0</t>
+  </si>
+  <si>
+    <t>Show that no exceptions occur, but writes are ignored to unimplemented fields of implemented CSRs</t>
+  </si>
+  <si>
+    <t>ISA-P Chapters 3.1, 6.4</t>
+  </si>
+  <si>
+    <t>Timeout wait</t>
+  </si>
+  <si>
+    <t>Timeout wait is not implemented in system with only M mode enabled</t>
+  </si>
+  <si>
+    <t>Show that TW bit of mstatus is always 0</t>
+  </si>
+  <si>
+    <t>Covered by above testing as TW is not implemented in CV32E40P</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 3.1.7
+UserManual mtvec</t>
+  </si>
+  <si>
+    <t>Mtvec provides the starting value of the IVT as well as the mode number at the time. Mode number is not relevant to exceptions as it only affects the value jumped to by interrupts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show that exceptions jump to the base value defined in mtvec </t>
+  </si>
+  <si>
+    <t>All exception jump to the base address of mtvec</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 3.1.9
+ISA-P Chapter 3.1.16</t>
+  </si>
+  <si>
+    <t>- Synchronous exceptions are of lower priority than all interrupts.
+- Exception priority (high to low)
+    - code=3 (breakpoint)
+    - code=2 (illegal instruction)
+    - code=11 (ECALL)</t>
+  </si>
+  <si>
+    <t>- Show that noted exception prority is respected
+- Show that an interrupt has higher priority than all 3 supported exceptions</t>
+  </si>
+  <si>
+    <t>Interrupt/exception priority respected.</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 3.1.10</t>
+  </si>
+  <si>
+    <t>Timers are not implemented in their normal functionality and are instead wired to 0</t>
+  </si>
+  <si>
+    <t>Show that timers cannot generate exceptions</t>
+  </si>
+  <si>
+    <t>No exceptions occur when attempting to use timer functionality</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 3.1.11</t>
+  </si>
+  <si>
+    <t>Hardware Performance
+Monitor</t>
+  </si>
+  <si>
+    <t>HPMs are not implemented in their normal functionality and are instead wired to 0</t>
+  </si>
+  <si>
+    <t>Show that HPMs cannot generate exceptions</t>
+  </si>
+  <si>
+    <t>No exceptions occur when attempting to use HPM functionality</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 3.1.14</t>
+  </si>
+  <si>
+    <t>Mscratch can be freely written to and read from unlike most CSRs</t>
+  </si>
+  <si>
+    <t>Show that mscratch can be freely written to and read from</t>
+  </si>
+  <si>
+    <t>No exceptions occur, and mscratch can be freely written to and read from</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 3.1.15</t>
+  </si>
+  <si>
+    <t>Machine Excption
+Program Counter</t>
+  </si>
+  <si>
+    <t>Mepc is set to the pc value of the instruction that generates an exception</t>
+  </si>
+  <si>
+    <t>Show than mepc has the correct pc value in it when an exception occurs</t>
+  </si>
+  <si>
+    <t>When interrupt or exception occurs, mepc is loaded with proper pc value to return to</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 3.1.16</t>
+  </si>
+  <si>
+    <t>Mcause's value is set when interrupts and exceptions occur</t>
+  </si>
+  <si>
+    <t>Show that mcause has correct values when exceptions occur</t>
+  </si>
+  <si>
+    <t>When interrupt or exception occurs, mcause is loaded with proper cause values</t>
+  </si>
+  <si>
+    <t>ISA-P Chapters 3.1.17</t>
+  </si>
+  <si>
+    <t>mtval should ignore writes and read as 0</t>
+  </si>
+  <si>
+    <t>Check that mtval ignores writes and reads 0 and does not generate exceptions</t>
+  </si>
+  <si>
+    <t>No exceptions occur on access of mtval, writes are ignored, and reads return 0</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 3.2.1
+ISA-DEBUG Chapter 4.8.1</t>
+  </si>
+  <si>
+    <t>Environment Call and
+Breakpoint</t>
+  </si>
+  <si>
+    <t>Ecall should call the exception handler ecall (M mode) (exception 11). If dcsr[ebreakm]=0, ebreak should call the exception handler breakpoint (exception 3)</t>
+  </si>
+  <si>
+    <t>Demonstrate that ecall and ebreak (as well as c.ebreak) call the correct exceptions (not including when dcsr[ebreakm]=1)</t>
+  </si>
+  <si>
+    <t>Ecall, ebreak, and c.ebreak all generate the appropriate exceptions</t>
+  </si>
+  <si>
+    <t>ISA-DEBUG Chapter 4.8.1</t>
+  </si>
+  <si>
+    <t>Environment Breakpoint Debug mode</t>
+  </si>
+  <si>
+    <t>dcsr[ebreakm]=1: ebreak instructions in M-mode enter Debug mode.</t>
+  </si>
+  <si>
+    <t>Demonstrate that ebreak instruction enters debug mode if dcsr[ebreakm]=1</t>
+  </si>
+  <si>
+    <t>Internal signal riscv_core/debug_mode=1</t>
+  </si>
+  <si>
+    <t>ISA-P Chapter 3.3</t>
+  </si>
+  <si>
+    <t>Reset changes the value of mcause</t>
+  </si>
+  <si>
+    <t>Show that mcause is the correct value upon reset (0x00000000)</t>
+  </si>
+  <si>
+    <t>Reset sets mcause to 0x00000000</t>
+  </si>
+  <si>
+    <t>ISA-DEBUG Chapter 5</t>
+  </si>
+  <si>
+    <t>Load/Store Trigger Exception</t>
+  </si>
+  <si>
+    <t>Debug trigger implementation allows for the setting of values (while in debug mode) that will trigger debug mode when said address is loaded to or stored from</t>
+  </si>
+  <si>
+    <t>Show that load/store triggered exceptions occur and that they will properly take precedence over the load/store instruction that triggered the exception</t>
+  </si>
+  <si>
+    <t>Debug mode is entered when correct address is loaded or stored and load or store is executed upon dret</t>
+  </si>
+  <si>
+    <t>Address Trigger Exception</t>
+  </si>
+  <si>
+    <t>Debug trigger implementation allows for the setting of addresses (while in debug mode) that will trigger debug mode when instructions at said addresses are attempted to be executed</t>
+  </si>
+  <si>
+    <t>Show that address triggered exceptions occur and that they properly take precedence over the instruction that triggered the exception</t>
+  </si>
+  <si>
+    <t>Debug mode is entered at correct PC value and instruction at that value is executed upon dret</t>
+  </si>
+  <si>
+    <t>ISA-DEBUG 4.8.2</t>
+  </si>
+  <si>
+    <t>DCSR</t>
+  </si>
+  <si>
+    <t>Allows configuration of how debug mode can be entered and cause for why debug mode was entered</t>
+  </si>
+  <si>
+    <t>show that valid debug mode control settings work as expected</t>
+  </si>
+  <si>
+    <t>enabling ebreakm allows ebreak to enter debug mode</t>
+  </si>
+  <si>
+    <t>ISA-DEBUG 4.8.1</t>
+  </si>
+  <si>
+    <t>DPC</t>
+  </si>
+  <si>
+    <t>When debug mode is entered, contains the address of the next instruction to be executed</t>
+  </si>
+  <si>
+    <t>Show that dpc has the correct pc value in it upon entering debug mode</t>
+  </si>
+  <si>
+    <t>When debug mode is entered, dpc is loaded with the correct pc value</t>
+  </si>
+  <si>
+    <t>Attempted Load / Store cycles complete as normally</t>
+  </si>
+  <si>
+    <t>Demonstrate that miss-aligned access results in two (2) load/stores.</t>
+  </si>
+  <si>
+    <t>Everything below list line is from the em-micro plan and contains features that are either no supported by CV32E40P or features covered in other DV plans.</t>
+  </si>
+  <si>
+    <t>This spreadsheet consolidates two DV plans:</t>
+  </si>
+  <si>
+    <t>(1) CV32E40P_instruction_exceptions.xlsx (list file)</t>
+  </si>
+  <si>
+    <t>(2) emus-CV32E40P_instruction_exceptions.xlsx</t>
+  </si>
+  <si>
+    <t>File (2) was deleted from the CORE-V-DOC repo on 2020-09-16 (its still there, of course, just not in later hashes of the repo).</t>
+  </si>
+  <si>
+    <t>Many features (row in the spreadsheet) have been removed from the plan, but not deleted from the spreadsheet.  These have been stricken out and hidden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -790,12 +1240,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -804,13 +1248,44 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,6 +1295,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,19 +1341,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,11 +1362,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,56 +1716,65 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{13674E3C-0528-4650-B7C1-C68DE9A49B3F}">
+  <threadedComment ref="B1" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{13674E3C-0528-4650-B7C1-C68DE9A49B3F}" done="1">
     <text>The sheet labels the core as RV32IMFCZ which is not acurate.</text>
   </threadedComment>
   <threadedComment ref="B1" dT="2020-09-09T19:08:19.71" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{34FD608E-A4EE-40C3-9CAA-8FA59456C4BF}" parentId="{13674E3C-0528-4650-B7C1-C68DE9A49B3F}">
     <text>Updated sheet label.</text>
   </threadedComment>
-  <threadedComment ref="C2" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{7B700813-2611-4E1C-BD9E-9B6CF7A48581}">
+  <threadedComment ref="C2" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{7B700813-2611-4E1C-BD9E-9B6CF7A48581}" done="1">
     <text>Current implementation has no error signal coming from the bus. There is no situation that will cause a memory access exception.</text>
   </threadedComment>
   <threadedComment ref="C2" dT="2020-09-09T15:54:45.06" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{30C932CF-0ED8-489D-969A-0201D73FDD76}" parentId="{7B700813-2611-4E1C-BD9E-9B6CF7A48581}">
     <text>Shall we strike-out this feature?</text>
   </threadedComment>
-  <threadedComment ref="C4" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}">
+  <threadedComment ref="B3" dT="2020-09-11T17:58:19.14" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{7843569F-3E9B-4D24-9B0D-6E4BE0208E67}">
+    <text>How do we present illegal instructions to the core?  Will the Google ISG actually generate illegal instructions?   How are these handled by the toolchain?</text>
+  </threadedComment>
+  <threadedComment ref="B3" dT="2020-09-15T22:28:36.32" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{973A46AB-BC3C-47EE-8827-0F25570A2E72}" parentId="{7843569F-3E9B-4D24-9B0D-6E4BE0208E67}">
+    <text>David has a script that deliberately generates mis-formed instructions.</text>
+  </threadedComment>
+  <threadedComment ref="C4" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}" done="1">
     <text>I don’t think the core can throw a misaligned instruction exception. Perhaps this is a hole in the design or is simply not possible because of the hardwired bit in the PC and the encoding of all jumps and calls.</text>
   </threadedComment>
   <threadedComment ref="C4" dT="2020-09-09T16:22:25.47" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{CB7A4571-A687-4388-934D-7BBB783D1BA8}" parentId="{BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}">
     <text>I think you are right John.  I will ask Davide and Arjan about this.</text>
   </threadedComment>
-  <threadedComment ref="D5" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}">
+  <threadedComment ref="C4" dT="2020-09-16T19:48:08.20" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{B7F13CB4-0B3C-4E88-AEE2-FFCDA11574A1}" parentId="{BFAA3673-17D7-45A9-A913-DBBB71D8DC2B}">
+    <text>John is correct.</text>
+  </threadedComment>
+  <threadedComment ref="D5" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}" done="1">
     <text>In particular the instruction you may expect an exception from (divide) does not throw an exception. Perhaps make sure this situation is covered?</text>
   </threadedComment>
   <threadedComment ref="D5" dT="2020-09-09T16:25:40.17" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{6FEDAC00-D436-4F86-9C61-B77A5690DCF9}" parentId="{4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}">
     <text>Other than the specific case listed, what exactly is an "exception on ALU"?</text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{BE685513-1895-42E3-93EE-99CFAD928C96}">
-    <text>This sounds like a directed test. Is this going to be captured as part of the ISG with a cover point?</text>
+  <threadedComment ref="D5" dT="2020-09-16T19:48:39.26" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{A2695DF6-323C-438D-BAFE-FB22629D7A83}" parentId="{4B87B41C-DC4C-4A8A-B336-BAD81626AE6E}">
+    <text>There are no ALU exceptions in CV32E40P</text>
   </threadedComment>
-  <threadedComment ref="F6" dT="2020-09-09T16:28:44.86" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{64ABDFEB-0E6D-4916-891F-0B310DAD3B1D}" parentId="{BE685513-1895-42E3-93EE-99CFAD928C96}">
-    <text>Agree that is could be (should be?) a directed test.  Not sure if the Google ISG can generate these.</text>
+  <threadedComment ref="D6" dT="2020-09-11T19:54:51.19" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{A715851D-CFEA-4A2B-B1C9-D26ADDED9974}">
+    <text>Question: can your test-program throw an error if an unexpected exception occurs?   Throw an error if an expected exception does not occur?</text>
   </threadedComment>
-  <threadedComment ref="C7" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}">
+  <threadedComment ref="D6" dT="2020-09-15T22:32:57.72" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{E6D1AA9D-D851-402A-809C-697EA036A9E0}" parentId="{A715851D-CFEA-4A2B-B1C9-D26ADDED9974}">
+    <text>Not required - ISS will mis-match on mepc</text>
+  </threadedComment>
+  <threadedComment ref="C7" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}" done="1">
     <text>I don't think the core can throw a missaligned data exception either. The core should issue two loads or stores in this case. Perhaps instead we should cover that a missaligned load/store happened.</text>
   </threadedComment>
   <threadedComment ref="C7" dT="2020-09-09T16:35:46.65" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{CB3FBEAE-BC30-460A-B892-2CAB056B8281}" parentId="{8B3FA710-5947-4E7E-94D8-BE80F4CDEE55}">
     <text>Updated Goal and Pass/Fail criteria of this Feature.</text>
   </threadedComment>
-  <threadedComment ref="C13" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{C4E1B028-4DFF-422A-9895-FD6D0BEBA878}">
+  <threadedComment ref="C13" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{C4E1B028-4DFF-422A-9895-FD6D0BEBA878}" done="1">
     <text>Is there some level of overlap with a CSR test or is checking all the CSRs lumped into the exception test?</text>
   </threadedComment>
   <threadedComment ref="C13" dT="2020-09-09T16:37:43.13" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{D86872AC-2491-418C-987F-385539ACA7C1}" parentId="{C4E1B028-4DFF-422A-9895-FD6D0BEBA878}">
     <text>This is an overlap with the CSR DV plan.  Having said that, I am happier to see overlapping Features in the DV plan - much better than underlapping.  Recommend we leave this in.</text>
   </threadedComment>
-  <threadedComment ref="C15" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{E5B716A6-BB6D-4012-8C6F-65064D779290}">
+  <threadedComment ref="C15" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{E5B716A6-BB6D-4012-8C6F-65064D779290}" done="1">
     <text>master mode? Should this be machine mode?</text>
   </threadedComment>
   <threadedComment ref="C15" dT="2020-09-09T16:39:35.42" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{0EE8F63A-05EF-445C-9220-A48BCAF05184}" parentId="{E5B716A6-BB6D-4012-8C6F-65064D779290}">
     <text>Good catch.  Fixed.  Also an overlap with CSR testing, which I am inclined to remove from this DV plan.</text>
-  </threadedComment>
-  <threadedComment ref="C16" dT="2020-09-09T16:54:43.47" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{B3A30BA7-29A6-40C6-8587-DDDF52024DA1}">
-    <text>Again, this seems to be about Interrupts, not Exceptions.</text>
   </threadedComment>
   <threadedComment ref="C17" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{58EF0D8C-3AA0-4FF5-8D3D-D5627B903C45}">
     <text>Why is this a directed test? With the ISS in the loop you can just run randomized code and collect coverage on overlap of exceptions.</text>
@@ -1210,71 +1782,107 @@
   <threadedComment ref="C17" dT="2020-09-09T16:51:22.41" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{DB31D056-07E9-4701-8545-1E75EEEEE9A9}" parentId="{58EF0D8C-3AA0-4FF5-8D3D-D5627B903C45}">
     <text>I do not know if the ISS attempts to 'present exceptions in the proper order'.   Section 3.1.9 of the Privileged Spec is about interrupts, not exceptions.</text>
   </threadedComment>
-  <threadedComment ref="C18" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}">
+  <threadedComment ref="C19" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}" done="1">
     <text>I don't think there is an implementation of the timers outside of the interrupt coming into the core. That would be covered by the interrupt vplan.</text>
   </threadedComment>
-  <threadedComment ref="C18" dT="2020-09-09T16:55:49.90" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{6149191B-865F-4BC5-B294-0C0AE75A442C}" parentId="{D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}">
+  <threadedComment ref="C19" dT="2020-09-09T16:55:49.90" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{6149191B-865F-4BC5-B294-0C0AE75A442C}" parentId="{D44CC4AB-D6AD-4765-BEDB-3FFAAE9CE344}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="C20" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{43E6C0DA-E02B-482D-948C-2363561CF5C1}">
+  <threadedComment ref="C21" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{43E6C0DA-E02B-482D-948C-2363561CF5C1}" done="1">
     <text>Then remove it from this vplan.</text>
   </threadedComment>
-  <threadedComment ref="C20" dT="2020-09-09T16:56:37.72" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{19466A9E-0420-4249-8A86-399715AFBE02}" parentId="{43E6C0DA-E02B-482D-948C-2363561CF5C1}">
+  <threadedComment ref="C21" dT="2020-09-09T16:56:37.72" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{19466A9E-0420-4249-8A86-399715AFBE02}" parentId="{43E6C0DA-E02B-482D-948C-2363561CF5C1}">
     <text>Done</text>
   </threadedComment>
-  <threadedComment ref="C21" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{81FC3993-72C4-4608-81DB-DDAA494B52D4}">
+  <threadedComment ref="C22" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{81FC3993-72C4-4608-81DB-DDAA494B52D4}">
     <text>There is a lot of overlap with the interrupt testing for these CSRs. This should all be covered by step and compare with the CSRs in the ISS.</text>
   </threadedComment>
-  <threadedComment ref="C21" dT="2020-09-09T16:59:17.26" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{AAA5F148-4A01-4C97-85E3-D83B9F4D2E14}" parentId="{81FC3993-72C4-4608-81DB-DDAA494B52D4}">
+  <threadedComment ref="C22" dT="2020-09-09T16:59:17.26" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{AAA5F148-4A01-4C97-85E3-D83B9F4D2E14}" parentId="{81FC3993-72C4-4608-81DB-DDAA494B52D4}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="C23" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{C18A497F-2C14-4C53-B519-65D111A98D26}">
+  <threadedComment ref="C25" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{C18A497F-2C14-4C53-B519-65D111A98D26}" done="1">
     <text>It is not.</text>
   </threadedComment>
-  <threadedComment ref="C23" dT="2020-09-09T16:59:52.68" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{46B91FE2-0E7D-46C9-8A8C-7FEA9527E055}" parentId="{C18A497F-2C14-4C53-B519-65D111A98D26}">
+  <threadedComment ref="C25" dT="2020-09-09T16:59:52.68" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{46B91FE2-0E7D-46C9-8A8C-7FEA9527E055}" parentId="{C18A497F-2C14-4C53-B519-65D111A98D26}">
     <text>Thanks</text>
   </threadedComment>
-  <threadedComment ref="C24" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}">
+  <threadedComment ref="C26" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}" done="1">
     <text>Remove the line then? Why is ecall considered part of debug testing? This would usually be used by an OS to call into the kernel. It should throw an exception not enter debug mode. Likewise, you can put an ebreak in your code without interaction of the DM. It should throw the exception (if ebreakx in dcsr is left at 0) instead of entering debug mode. It sounds like that case should be covered here.</text>
   </threadedComment>
-  <threadedComment ref="C24" dT="2020-09-09T17:00:33.27" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{54926BFE-99FB-4DCC-92D8-CBD5C15B03FC}" parentId="{62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}">
+  <threadedComment ref="C26" dT="2020-09-09T17:00:33.27" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{54926BFE-99FB-4DCC-92D8-CBD5C15B03FC}" parentId="{62D1A11B-AC2F-482A-9E38-52E8EA38EAF1}">
     <text>Done</text>
   </threadedComment>
-  <threadedComment ref="C25" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{1253636C-DF86-496C-89B0-2181B1ECBC8D}">
+  <threadedComment ref="C27" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{1253636C-DF86-496C-89B0-2181B1ECBC8D}" done="1">
     <text>I don't think this belongs in the exception vplan.</text>
   </threadedComment>
-  <threadedComment ref="C25" dT="2020-09-09T17:01:38.33" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{06F811A4-F084-433D-8856-702D2BB4C710}" parentId="{1253636C-DF86-496C-89B0-2181B1ECBC8D}">
+  <threadedComment ref="C27" dT="2020-09-09T17:01:38.33" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{06F811A4-F084-433D-8856-702D2BB4C710}" parentId="{1253636C-DF86-496C-89B0-2181B1ECBC8D}">
     <text>Agreed.  I commented, will strike it if the team agrees.</text>
   </threadedComment>
-  <threadedComment ref="E25" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}">
+  <threadedComment ref="E27" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}" done="1">
     <text>Yes it waits but then what?</text>
   </threadedComment>
-  <threadedComment ref="E25" dT="2020-09-09T17:08:10.54" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{D7FD1696-B03B-466B-8289-22D0AE4DD9CD}" parentId="{805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}">
+  <threadedComment ref="E27" dT="2020-09-09T17:08:10.54" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{D7FD1696-B03B-466B-8289-22D0AE4DD9CD}" parentId="{805DD8F3-31B9-4626-94A8-DBB34E7B9C2C}">
     <text>For an interrupt or forever if MIE is 0x0.  This should be part of CSR function testing.</text>
   </threadedComment>
-  <threadedComment ref="C26" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{924CDB6A-00B9-4F98-970F-0E03AA2FF569}">
+  <threadedComment ref="C28" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{924CDB6A-00B9-4F98-970F-0E03AA2FF569}" done="1">
     <text>Yeah mcause is used by the exception and interrupt systems but isn't it better to cover the reset value of all CSRs in the CSR verification?</text>
   </threadedComment>
-  <threadedComment ref="C26" dT="2020-09-09T17:08:55.07" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{D6CCE53E-FCDE-4368-B0F7-DCA03C30D11C}" parentId="{924CDB6A-00B9-4F98-970F-0E03AA2FF569}">
+  <threadedComment ref="C28" dT="2020-09-09T17:08:55.07" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{D6CCE53E-FCDE-4368-B0F7-DCA03C30D11C}" parentId="{924CDB6A-00B9-4F98-970F-0E03AA2FF569}">
     <text>Indeed.  Already there.</text>
   </threadedComment>
-  <threadedComment ref="B27" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{E966D528-8623-4C57-9DD5-8263B94B26ED}">
+  <threadedComment ref="B29" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{E966D528-8623-4C57-9DD5-8263B94B26ED}" done="1">
     <text>NMI was removed. This wouldn't belong in the exceptions vplan either.</text>
   </threadedComment>
-  <threadedComment ref="B28" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{26BEC602-F548-4458-8901-212BEC528318}">
+  <threadedComment ref="B30" dT="2020-09-11T20:04:27.00" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{DAB6B4FD-5800-4398-8950-BD8D478B7E78}">
+    <text>I like this Feature, but its not clear how the test-program is implemented.</text>
+  </threadedComment>
+  <threadedComment ref="B30" dT="2020-09-15T22:45:27.14" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{790F8CA5-B0D6-45FC-85E8-27738886801C}" parentId="{DAB6B4FD-5800-4398-8950-BD8D478B7E78}">
+    <text>Two options: (1) encode the expected exception in the handler, or (2) compare against RM.</text>
+  </threadedComment>
+  <threadedComment ref="C32" dT="2020-09-11T20:08:06.28" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{D2EBAD88-0CC9-4738-AD01-815EC1346E43}" done="1">
+    <text>Ordinarily this would be part of a CSR DV plan, but getting bits set in mcause is better done as part of the exceptions DV plan.</text>
+  </threadedComment>
+  <threadedComment ref="B33" dT="2020-09-11T20:11:14.34" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{E6D893DA-B8FD-4D91-90F6-A348C0687C61}" done="1">
+    <text>Debug DV plan</text>
+  </threadedComment>
+  <threadedComment ref="B34" dT="2020-09-11T20:10:58.56" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{A8583B8C-5533-48A8-8EBC-7AF8D7D3D527}" done="1">
+    <text>Debug DV plan</text>
+  </threadedComment>
+  <threadedComment ref="B35" dT="2020-09-11T20:10:27.49" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{4D6E6CCA-D061-4A5C-BB50-B0938F3392F4}">
+    <text>Maybe already covered in Debug plan (need to check).</text>
+  </threadedComment>
+  <threadedComment ref="B36" dT="2020-09-11T20:10:38.57" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{BCD354B1-EB2C-4CCA-BE3C-B04CE96EA505}">
+    <text>Debug DV plan?</text>
+  </threadedComment>
+  <threadedComment ref="B37" personId="{9D6B02CD-771E-4341-BC99-29EA2ECF211E}" id="{26BEC602-F548-4458-8901-212BEC528318}">
     <text>There is instruction, load and store fault exceptions in the RTL but it may not be coverable since there is no error signal on either bus. Assertion or exclusion?</text>
+  </threadedComment>
+  <threadedComment ref="B39" dT="2020-09-11T19:56:49.27" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{8522CE2E-DC2C-4D28-A792-FB43D5ED3A16}">
+    <text>I would recommend we track this in the CSR DV plan.  Same for Features in rows 9..11.</text>
+  </threadedComment>
+  <threadedComment ref="B43" dT="2020-09-11T19:58:47.04" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{79A07E8F-AA10-48EA-BC1A-95436DDCFD9B}">
+    <text>Not implemented in CV32E40P.</text>
+  </threadedComment>
+  <threadedComment ref="B45" dT="2020-09-11T20:01:27.10" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{C1CB7F91-3F1D-469B-A9B2-DAB105CE80A8}">
+    <text>Actually, HPMs are implemented.   See the "Counters" DV Plan</text>
+  </threadedComment>
+  <threadedComment ref="B46" dT="2020-09-11T20:01:57.47" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{5D450191-6596-42AC-9366-52C35AA4837F}">
+    <text>CSR DV Plan</text>
+  </threadedComment>
+  <threadedComment ref="B48" dT="2020-09-11T20:03:13.94" personId="{9AA934A9-77E0-4A7B-AC35-8BD7E50DAE7D}" id="{C0D41C0F-9331-4AB6-9CF1-21E7801CC2EA}">
+    <text>CSR DV plan</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK28"/>
+  <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,629 +1894,3140 @@
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="6" customWidth="1"/>
     <col min="10" max="1025" width="17" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1025" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
+      <c r="CJ1" s="21"/>
+      <c r="CK1" s="21"/>
+      <c r="CL1" s="21"/>
+      <c r="CM1" s="21"/>
+      <c r="CN1" s="21"/>
+      <c r="CO1" s="21"/>
+      <c r="CP1" s="21"/>
+      <c r="CQ1" s="21"/>
+      <c r="CR1" s="21"/>
+      <c r="CS1" s="21"/>
+      <c r="CT1" s="21"/>
+      <c r="CU1" s="21"/>
+      <c r="CV1" s="21"/>
+      <c r="CW1" s="21"/>
+      <c r="CX1" s="21"/>
+      <c r="CY1" s="21"/>
+      <c r="CZ1" s="21"/>
+      <c r="DA1" s="21"/>
+      <c r="DB1" s="21"/>
+      <c r="DC1" s="21"/>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="21"/>
+      <c r="DI1" s="21"/>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="21"/>
+      <c r="DS1" s="21"/>
+      <c r="DT1" s="21"/>
+      <c r="DU1" s="21"/>
+      <c r="DV1" s="21"/>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="21"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="21"/>
+      <c r="EC1" s="21"/>
+      <c r="ED1" s="21"/>
+      <c r="EE1" s="21"/>
+      <c r="EF1" s="21"/>
+      <c r="EG1" s="21"/>
+      <c r="EH1" s="21"/>
+      <c r="EI1" s="21"/>
+      <c r="EJ1" s="21"/>
+      <c r="EK1" s="21"/>
+      <c r="EL1" s="21"/>
+      <c r="EM1" s="21"/>
+      <c r="EN1" s="21"/>
+      <c r="EO1" s="21"/>
+      <c r="EP1" s="21"/>
+      <c r="EQ1" s="21"/>
+      <c r="ER1" s="21"/>
+      <c r="ES1" s="21"/>
+      <c r="ET1" s="21"/>
+      <c r="EU1" s="21"/>
+      <c r="EV1" s="21"/>
+      <c r="EW1" s="21"/>
+      <c r="EX1" s="21"/>
+      <c r="EY1" s="21"/>
+      <c r="EZ1" s="21"/>
+      <c r="FA1" s="21"/>
+      <c r="FB1" s="21"/>
+      <c r="FC1" s="21"/>
+      <c r="FD1" s="21"/>
+      <c r="FE1" s="21"/>
+      <c r="FF1" s="21"/>
+      <c r="FG1" s="21"/>
+      <c r="FH1" s="21"/>
+      <c r="FI1" s="21"/>
+      <c r="FJ1" s="21"/>
+      <c r="FK1" s="21"/>
+      <c r="FL1" s="21"/>
+      <c r="FM1" s="21"/>
+      <c r="FN1" s="21"/>
+      <c r="FO1" s="21"/>
+      <c r="FP1" s="21"/>
+      <c r="FQ1" s="21"/>
+      <c r="FR1" s="21"/>
+      <c r="FS1" s="21"/>
+      <c r="FT1" s="21"/>
+      <c r="FU1" s="21"/>
+      <c r="FV1" s="21"/>
+      <c r="FW1" s="21"/>
+      <c r="FX1" s="21"/>
+      <c r="FY1" s="21"/>
+      <c r="FZ1" s="21"/>
+      <c r="GA1" s="21"/>
+      <c r="GB1" s="21"/>
+      <c r="GC1" s="21"/>
+      <c r="GD1" s="21"/>
+      <c r="GE1" s="21"/>
+      <c r="GF1" s="21"/>
+      <c r="GG1" s="21"/>
+      <c r="GH1" s="21"/>
+      <c r="GI1" s="21"/>
+      <c r="GJ1" s="21"/>
+      <c r="GK1" s="21"/>
+      <c r="GL1" s="21"/>
+      <c r="GM1" s="21"/>
+      <c r="GN1" s="21"/>
+      <c r="GO1" s="21"/>
+      <c r="GP1" s="21"/>
+      <c r="GQ1" s="21"/>
+      <c r="GR1" s="21"/>
+      <c r="GS1" s="21"/>
+      <c r="GT1" s="21"/>
+      <c r="GU1" s="21"/>
+      <c r="GV1" s="21"/>
+      <c r="GW1" s="21"/>
+      <c r="GX1" s="21"/>
+      <c r="GY1" s="21"/>
+      <c r="GZ1" s="21"/>
+      <c r="HA1" s="21"/>
+      <c r="HB1" s="21"/>
+      <c r="HC1" s="21"/>
+      <c r="HD1" s="21"/>
+      <c r="HE1" s="21"/>
+      <c r="HF1" s="21"/>
+      <c r="HG1" s="21"/>
+      <c r="HH1" s="21"/>
+      <c r="HI1" s="21"/>
+      <c r="HJ1" s="21"/>
+      <c r="HK1" s="21"/>
+      <c r="HL1" s="21"/>
+      <c r="HM1" s="21"/>
+      <c r="HN1" s="21"/>
+      <c r="HO1" s="21"/>
+      <c r="HP1" s="21"/>
+      <c r="HQ1" s="21"/>
+      <c r="HR1" s="21"/>
+      <c r="HS1" s="21"/>
+      <c r="HT1" s="21"/>
+      <c r="HU1" s="21"/>
+      <c r="HV1" s="21"/>
+      <c r="HW1" s="21"/>
+      <c r="HX1" s="21"/>
+      <c r="HY1" s="21"/>
+      <c r="HZ1" s="21"/>
+      <c r="IA1" s="21"/>
+      <c r="IB1" s="21"/>
+      <c r="IC1" s="21"/>
+      <c r="ID1" s="21"/>
+      <c r="IE1" s="21"/>
+      <c r="IF1" s="21"/>
+      <c r="IG1" s="21"/>
+      <c r="IH1" s="21"/>
+      <c r="II1" s="21"/>
+      <c r="IJ1" s="21"/>
+      <c r="IK1" s="21"/>
+      <c r="IL1" s="21"/>
+      <c r="IM1" s="21"/>
+      <c r="IN1" s="21"/>
+      <c r="IO1" s="21"/>
+      <c r="IP1" s="21"/>
+      <c r="IQ1" s="21"/>
+      <c r="IR1" s="21"/>
+      <c r="IS1" s="21"/>
+      <c r="IT1" s="21"/>
+      <c r="IU1" s="21"/>
+      <c r="IV1" s="21"/>
+      <c r="IW1" s="21"/>
+      <c r="IX1" s="21"/>
+      <c r="IY1" s="21"/>
+      <c r="IZ1" s="21"/>
+      <c r="JA1" s="21"/>
+      <c r="JB1" s="21"/>
+      <c r="JC1" s="21"/>
+      <c r="JD1" s="21"/>
+      <c r="JE1" s="21"/>
+      <c r="JF1" s="21"/>
+      <c r="JG1" s="21"/>
+      <c r="JH1" s="21"/>
+      <c r="JI1" s="21"/>
+      <c r="JJ1" s="21"/>
+      <c r="JK1" s="21"/>
+      <c r="JL1" s="21"/>
+      <c r="JM1" s="21"/>
+      <c r="JN1" s="21"/>
+      <c r="JO1" s="21"/>
+      <c r="JP1" s="21"/>
+      <c r="JQ1" s="21"/>
+      <c r="JR1" s="21"/>
+      <c r="JS1" s="21"/>
+      <c r="JT1" s="21"/>
+      <c r="JU1" s="21"/>
+      <c r="JV1" s="21"/>
+      <c r="JW1" s="21"/>
+      <c r="JX1" s="21"/>
+      <c r="JY1" s="21"/>
+      <c r="JZ1" s="21"/>
+      <c r="KA1" s="21"/>
+      <c r="KB1" s="21"/>
+      <c r="KC1" s="21"/>
+      <c r="KD1" s="21"/>
+      <c r="KE1" s="21"/>
+      <c r="KF1" s="21"/>
+      <c r="KG1" s="21"/>
+      <c r="KH1" s="21"/>
+      <c r="KI1" s="21"/>
+      <c r="KJ1" s="21"/>
+      <c r="KK1" s="21"/>
+      <c r="KL1" s="21"/>
+      <c r="KM1" s="21"/>
+      <c r="KN1" s="21"/>
+      <c r="KO1" s="21"/>
+      <c r="KP1" s="21"/>
+      <c r="KQ1" s="21"/>
+      <c r="KR1" s="21"/>
+      <c r="KS1" s="21"/>
+      <c r="KT1" s="21"/>
+      <c r="KU1" s="21"/>
+      <c r="KV1" s="21"/>
+      <c r="KW1" s="21"/>
+      <c r="KX1" s="21"/>
+      <c r="KY1" s="21"/>
+      <c r="KZ1" s="21"/>
+      <c r="LA1" s="21"/>
+      <c r="LB1" s="21"/>
+      <c r="LC1" s="21"/>
+      <c r="LD1" s="21"/>
+      <c r="LE1" s="21"/>
+      <c r="LF1" s="21"/>
+      <c r="LG1" s="21"/>
+      <c r="LH1" s="21"/>
+      <c r="LI1" s="21"/>
+      <c r="LJ1" s="21"/>
+      <c r="LK1" s="21"/>
+      <c r="LL1" s="21"/>
+      <c r="LM1" s="21"/>
+      <c r="LN1" s="21"/>
+      <c r="LO1" s="21"/>
+      <c r="LP1" s="21"/>
+      <c r="LQ1" s="21"/>
+      <c r="LR1" s="21"/>
+      <c r="LS1" s="21"/>
+      <c r="LT1" s="21"/>
+      <c r="LU1" s="21"/>
+      <c r="LV1" s="21"/>
+      <c r="LW1" s="21"/>
+      <c r="LX1" s="21"/>
+      <c r="LY1" s="21"/>
+      <c r="LZ1" s="21"/>
+      <c r="MA1" s="21"/>
+      <c r="MB1" s="21"/>
+      <c r="MC1" s="21"/>
+      <c r="MD1" s="21"/>
+      <c r="ME1" s="21"/>
+      <c r="MF1" s="21"/>
+      <c r="MG1" s="21"/>
+      <c r="MH1" s="21"/>
+      <c r="MI1" s="21"/>
+      <c r="MJ1" s="21"/>
+      <c r="MK1" s="21"/>
+      <c r="ML1" s="21"/>
+      <c r="MM1" s="21"/>
+      <c r="MN1" s="21"/>
+      <c r="MO1" s="21"/>
+      <c r="MP1" s="21"/>
+      <c r="MQ1" s="21"/>
+      <c r="MR1" s="21"/>
+      <c r="MS1" s="21"/>
+      <c r="MT1" s="21"/>
+      <c r="MU1" s="21"/>
+      <c r="MV1" s="21"/>
+      <c r="MW1" s="21"/>
+      <c r="MX1" s="21"/>
+      <c r="MY1" s="21"/>
+      <c r="MZ1" s="21"/>
+      <c r="NA1" s="21"/>
+      <c r="NB1" s="21"/>
+      <c r="NC1" s="21"/>
+      <c r="ND1" s="21"/>
+      <c r="NE1" s="21"/>
+      <c r="NF1" s="21"/>
+      <c r="NG1" s="21"/>
+      <c r="NH1" s="21"/>
+      <c r="NI1" s="21"/>
+      <c r="NJ1" s="21"/>
+      <c r="NK1" s="21"/>
+      <c r="NL1" s="21"/>
+      <c r="NM1" s="21"/>
+      <c r="NN1" s="21"/>
+      <c r="NO1" s="21"/>
+      <c r="NP1" s="21"/>
+      <c r="NQ1" s="21"/>
+      <c r="NR1" s="21"/>
+      <c r="NS1" s="21"/>
+      <c r="NT1" s="21"/>
+      <c r="NU1" s="21"/>
+      <c r="NV1" s="21"/>
+      <c r="NW1" s="21"/>
+      <c r="NX1" s="21"/>
+      <c r="NY1" s="21"/>
+      <c r="NZ1" s="21"/>
+      <c r="OA1" s="21"/>
+      <c r="OB1" s="21"/>
+      <c r="OC1" s="21"/>
+      <c r="OD1" s="21"/>
+      <c r="OE1" s="21"/>
+      <c r="OF1" s="21"/>
+      <c r="OG1" s="21"/>
+      <c r="OH1" s="21"/>
+      <c r="OI1" s="21"/>
+      <c r="OJ1" s="21"/>
+      <c r="OK1" s="21"/>
+      <c r="OL1" s="21"/>
+      <c r="OM1" s="21"/>
+      <c r="ON1" s="21"/>
+      <c r="OO1" s="21"/>
+      <c r="OP1" s="21"/>
+      <c r="OQ1" s="21"/>
+      <c r="OR1" s="21"/>
+      <c r="OS1" s="21"/>
+      <c r="OT1" s="21"/>
+      <c r="OU1" s="21"/>
+      <c r="OV1" s="21"/>
+      <c r="OW1" s="21"/>
+      <c r="OX1" s="21"/>
+      <c r="OY1" s="21"/>
+      <c r="OZ1" s="21"/>
+      <c r="PA1" s="21"/>
+      <c r="PB1" s="21"/>
+      <c r="PC1" s="21"/>
+      <c r="PD1" s="21"/>
+      <c r="PE1" s="21"/>
+      <c r="PF1" s="21"/>
+      <c r="PG1" s="21"/>
+      <c r="PH1" s="21"/>
+      <c r="PI1" s="21"/>
+      <c r="PJ1" s="21"/>
+      <c r="PK1" s="21"/>
+      <c r="PL1" s="21"/>
+      <c r="PM1" s="21"/>
+      <c r="PN1" s="21"/>
+      <c r="PO1" s="21"/>
+      <c r="PP1" s="21"/>
+      <c r="PQ1" s="21"/>
+      <c r="PR1" s="21"/>
+      <c r="PS1" s="21"/>
+      <c r="PT1" s="21"/>
+      <c r="PU1" s="21"/>
+      <c r="PV1" s="21"/>
+      <c r="PW1" s="21"/>
+      <c r="PX1" s="21"/>
+      <c r="PY1" s="21"/>
+      <c r="PZ1" s="21"/>
+      <c r="QA1" s="21"/>
+      <c r="QB1" s="21"/>
+      <c r="QC1" s="21"/>
+      <c r="QD1" s="21"/>
+      <c r="QE1" s="21"/>
+      <c r="QF1" s="21"/>
+      <c r="QG1" s="21"/>
+      <c r="QH1" s="21"/>
+      <c r="QI1" s="21"/>
+      <c r="QJ1" s="21"/>
+      <c r="QK1" s="21"/>
+      <c r="QL1" s="21"/>
+      <c r="QM1" s="21"/>
+      <c r="QN1" s="21"/>
+      <c r="QO1" s="21"/>
+      <c r="QP1" s="21"/>
+      <c r="QQ1" s="21"/>
+      <c r="QR1" s="21"/>
+      <c r="QS1" s="21"/>
+      <c r="QT1" s="21"/>
+      <c r="QU1" s="21"/>
+      <c r="QV1" s="21"/>
+      <c r="QW1" s="21"/>
+      <c r="QX1" s="21"/>
+      <c r="QY1" s="21"/>
+      <c r="QZ1" s="21"/>
+      <c r="RA1" s="21"/>
+      <c r="RB1" s="21"/>
+      <c r="RC1" s="21"/>
+      <c r="RD1" s="21"/>
+      <c r="RE1" s="21"/>
+      <c r="RF1" s="21"/>
+      <c r="RG1" s="21"/>
+      <c r="RH1" s="21"/>
+      <c r="RI1" s="21"/>
+      <c r="RJ1" s="21"/>
+      <c r="RK1" s="21"/>
+      <c r="RL1" s="21"/>
+      <c r="RM1" s="21"/>
+      <c r="RN1" s="21"/>
+      <c r="RO1" s="21"/>
+      <c r="RP1" s="21"/>
+      <c r="RQ1" s="21"/>
+      <c r="RR1" s="21"/>
+      <c r="RS1" s="21"/>
+      <c r="RT1" s="21"/>
+      <c r="RU1" s="21"/>
+      <c r="RV1" s="21"/>
+      <c r="RW1" s="21"/>
+      <c r="RX1" s="21"/>
+      <c r="RY1" s="21"/>
+      <c r="RZ1" s="21"/>
+      <c r="SA1" s="21"/>
+      <c r="SB1" s="21"/>
+      <c r="SC1" s="21"/>
+      <c r="SD1" s="21"/>
+      <c r="SE1" s="21"/>
+      <c r="SF1" s="21"/>
+      <c r="SG1" s="21"/>
+      <c r="SH1" s="21"/>
+      <c r="SI1" s="21"/>
+      <c r="SJ1" s="21"/>
+      <c r="SK1" s="21"/>
+      <c r="SL1" s="21"/>
+      <c r="SM1" s="21"/>
+      <c r="SN1" s="21"/>
+      <c r="SO1" s="21"/>
+      <c r="SP1" s="21"/>
+      <c r="SQ1" s="21"/>
+      <c r="SR1" s="21"/>
+      <c r="SS1" s="21"/>
+      <c r="ST1" s="21"/>
+      <c r="SU1" s="21"/>
+      <c r="SV1" s="21"/>
+      <c r="SW1" s="21"/>
+      <c r="SX1" s="21"/>
+      <c r="SY1" s="21"/>
+      <c r="SZ1" s="21"/>
+      <c r="TA1" s="21"/>
+      <c r="TB1" s="21"/>
+      <c r="TC1" s="21"/>
+      <c r="TD1" s="21"/>
+      <c r="TE1" s="21"/>
+      <c r="TF1" s="21"/>
+      <c r="TG1" s="21"/>
+      <c r="TH1" s="21"/>
+      <c r="TI1" s="21"/>
+      <c r="TJ1" s="21"/>
+      <c r="TK1" s="21"/>
+      <c r="TL1" s="21"/>
+      <c r="TM1" s="21"/>
+      <c r="TN1" s="21"/>
+      <c r="TO1" s="21"/>
+      <c r="TP1" s="21"/>
+      <c r="TQ1" s="21"/>
+      <c r="TR1" s="21"/>
+      <c r="TS1" s="21"/>
+      <c r="TT1" s="21"/>
+      <c r="TU1" s="21"/>
+      <c r="TV1" s="21"/>
+      <c r="TW1" s="21"/>
+      <c r="TX1" s="21"/>
+      <c r="TY1" s="21"/>
+      <c r="TZ1" s="21"/>
+      <c r="UA1" s="21"/>
+      <c r="UB1" s="21"/>
+      <c r="UC1" s="21"/>
+      <c r="UD1" s="21"/>
+      <c r="UE1" s="21"/>
+      <c r="UF1" s="21"/>
+      <c r="UG1" s="21"/>
+      <c r="UH1" s="21"/>
+      <c r="UI1" s="21"/>
+      <c r="UJ1" s="21"/>
+      <c r="UK1" s="21"/>
+      <c r="UL1" s="21"/>
+      <c r="UM1" s="21"/>
+      <c r="UN1" s="21"/>
+      <c r="UO1" s="21"/>
+      <c r="UP1" s="21"/>
+      <c r="UQ1" s="21"/>
+      <c r="UR1" s="21"/>
+      <c r="US1" s="21"/>
+      <c r="UT1" s="21"/>
+      <c r="UU1" s="21"/>
+      <c r="UV1" s="21"/>
+      <c r="UW1" s="21"/>
+      <c r="UX1" s="21"/>
+      <c r="UY1" s="21"/>
+      <c r="UZ1" s="21"/>
+      <c r="VA1" s="21"/>
+      <c r="VB1" s="21"/>
+      <c r="VC1" s="21"/>
+      <c r="VD1" s="21"/>
+      <c r="VE1" s="21"/>
+      <c r="VF1" s="21"/>
+      <c r="VG1" s="21"/>
+      <c r="VH1" s="21"/>
+      <c r="VI1" s="21"/>
+      <c r="VJ1" s="21"/>
+      <c r="VK1" s="21"/>
+      <c r="VL1" s="21"/>
+      <c r="VM1" s="21"/>
+      <c r="VN1" s="21"/>
+      <c r="VO1" s="21"/>
+      <c r="VP1" s="21"/>
+      <c r="VQ1" s="21"/>
+      <c r="VR1" s="21"/>
+      <c r="VS1" s="21"/>
+      <c r="VT1" s="21"/>
+      <c r="VU1" s="21"/>
+      <c r="VV1" s="21"/>
+      <c r="VW1" s="21"/>
+      <c r="VX1" s="21"/>
+      <c r="VY1" s="21"/>
+      <c r="VZ1" s="21"/>
+      <c r="WA1" s="21"/>
+      <c r="WB1" s="21"/>
+      <c r="WC1" s="21"/>
+      <c r="WD1" s="21"/>
+      <c r="WE1" s="21"/>
+      <c r="WF1" s="21"/>
+      <c r="WG1" s="21"/>
+      <c r="WH1" s="21"/>
+      <c r="WI1" s="21"/>
+      <c r="WJ1" s="21"/>
+      <c r="WK1" s="21"/>
+      <c r="WL1" s="21"/>
+      <c r="WM1" s="21"/>
+      <c r="WN1" s="21"/>
+      <c r="WO1" s="21"/>
+      <c r="WP1" s="21"/>
+      <c r="WQ1" s="21"/>
+      <c r="WR1" s="21"/>
+      <c r="WS1" s="21"/>
+      <c r="WT1" s="21"/>
+      <c r="WU1" s="21"/>
+      <c r="WV1" s="21"/>
+      <c r="WW1" s="21"/>
+      <c r="WX1" s="21"/>
+      <c r="WY1" s="21"/>
+      <c r="WZ1" s="21"/>
+      <c r="XA1" s="21"/>
+      <c r="XB1" s="21"/>
+      <c r="XC1" s="21"/>
+      <c r="XD1" s="21"/>
+      <c r="XE1" s="21"/>
+      <c r="XF1" s="21"/>
+      <c r="XG1" s="21"/>
+      <c r="XH1" s="21"/>
+      <c r="XI1" s="21"/>
+      <c r="XJ1" s="21"/>
+      <c r="XK1" s="21"/>
+      <c r="XL1" s="21"/>
+      <c r="XM1" s="21"/>
+      <c r="XN1" s="21"/>
+      <c r="XO1" s="21"/>
+      <c r="XP1" s="21"/>
+      <c r="XQ1" s="21"/>
+      <c r="XR1" s="21"/>
+      <c r="XS1" s="21"/>
+      <c r="XT1" s="21"/>
+      <c r="XU1" s="21"/>
+      <c r="XV1" s="21"/>
+      <c r="XW1" s="21"/>
+      <c r="XX1" s="21"/>
+      <c r="XY1" s="21"/>
+      <c r="XZ1" s="21"/>
+      <c r="YA1" s="21"/>
+      <c r="YB1" s="21"/>
+      <c r="YC1" s="21"/>
+      <c r="YD1" s="21"/>
+      <c r="YE1" s="21"/>
+      <c r="YF1" s="21"/>
+      <c r="YG1" s="21"/>
+      <c r="YH1" s="21"/>
+      <c r="YI1" s="21"/>
+      <c r="YJ1" s="21"/>
+      <c r="YK1" s="21"/>
+      <c r="YL1" s="21"/>
+      <c r="YM1" s="21"/>
+      <c r="YN1" s="21"/>
+      <c r="YO1" s="21"/>
+      <c r="YP1" s="21"/>
+      <c r="YQ1" s="21"/>
+      <c r="YR1" s="21"/>
+      <c r="YS1" s="21"/>
+      <c r="YT1" s="21"/>
+      <c r="YU1" s="21"/>
+      <c r="YV1" s="21"/>
+      <c r="YW1" s="21"/>
+      <c r="YX1" s="21"/>
+      <c r="YY1" s="21"/>
+      <c r="YZ1" s="21"/>
+      <c r="ZA1" s="21"/>
+      <c r="ZB1" s="21"/>
+      <c r="ZC1" s="21"/>
+      <c r="ZD1" s="21"/>
+      <c r="ZE1" s="21"/>
+      <c r="ZF1" s="21"/>
+      <c r="ZG1" s="21"/>
+      <c r="ZH1" s="21"/>
+      <c r="ZI1" s="21"/>
+      <c r="ZJ1" s="21"/>
+      <c r="ZK1" s="21"/>
+      <c r="ZL1" s="21"/>
+      <c r="ZM1" s="21"/>
+      <c r="ZN1" s="21"/>
+      <c r="ZO1" s="21"/>
+      <c r="ZP1" s="21"/>
+      <c r="ZQ1" s="21"/>
+      <c r="ZR1" s="21"/>
+      <c r="ZS1" s="21"/>
+      <c r="ZT1" s="21"/>
+      <c r="ZU1" s="21"/>
+      <c r="ZV1" s="21"/>
+      <c r="ZW1" s="21"/>
+      <c r="ZX1" s="21"/>
+      <c r="ZY1" s="21"/>
+      <c r="ZZ1" s="21"/>
+      <c r="AAA1" s="21"/>
+      <c r="AAB1" s="21"/>
+      <c r="AAC1" s="21"/>
+      <c r="AAD1" s="21"/>
+      <c r="AAE1" s="21"/>
+      <c r="AAF1" s="21"/>
+      <c r="AAG1" s="21"/>
+      <c r="AAH1" s="21"/>
+      <c r="AAI1" s="21"/>
+      <c r="AAJ1" s="21"/>
+      <c r="AAK1" s="21"/>
+      <c r="AAL1" s="21"/>
+      <c r="AAM1" s="21"/>
+      <c r="AAN1" s="21"/>
+      <c r="AAO1" s="21"/>
+      <c r="AAP1" s="21"/>
+      <c r="AAQ1" s="21"/>
+      <c r="AAR1" s="21"/>
+      <c r="AAS1" s="21"/>
+      <c r="AAT1" s="21"/>
+      <c r="AAU1" s="21"/>
+      <c r="AAV1" s="21"/>
+      <c r="AAW1" s="21"/>
+      <c r="AAX1" s="21"/>
+      <c r="AAY1" s="21"/>
+      <c r="AAZ1" s="21"/>
+      <c r="ABA1" s="21"/>
+      <c r="ABB1" s="21"/>
+      <c r="ABC1" s="21"/>
+      <c r="ABD1" s="21"/>
+      <c r="ABE1" s="21"/>
+      <c r="ABF1" s="21"/>
+      <c r="ABG1" s="21"/>
+      <c r="ABH1" s="21"/>
+      <c r="ABI1" s="21"/>
+      <c r="ABJ1" s="21"/>
+      <c r="ABK1" s="21"/>
+      <c r="ABL1" s="21"/>
+      <c r="ABM1" s="21"/>
+      <c r="ABN1" s="21"/>
+      <c r="ABO1" s="21"/>
+      <c r="ABP1" s="21"/>
+      <c r="ABQ1" s="21"/>
+      <c r="ABR1" s="21"/>
+      <c r="ABS1" s="21"/>
+      <c r="ABT1" s="21"/>
+      <c r="ABU1" s="21"/>
+      <c r="ABV1" s="21"/>
+      <c r="ABW1" s="21"/>
+      <c r="ABX1" s="21"/>
+      <c r="ABY1" s="21"/>
+      <c r="ABZ1" s="21"/>
+      <c r="ACA1" s="21"/>
+      <c r="ACB1" s="21"/>
+      <c r="ACC1" s="21"/>
+      <c r="ACD1" s="21"/>
+      <c r="ACE1" s="21"/>
+      <c r="ACF1" s="21"/>
+      <c r="ACG1" s="21"/>
+      <c r="ACH1" s="21"/>
+      <c r="ACI1" s="21"/>
+      <c r="ACJ1" s="21"/>
+      <c r="ACK1" s="21"/>
+      <c r="ACL1" s="21"/>
+      <c r="ACM1" s="21"/>
+      <c r="ACN1" s="21"/>
+      <c r="ACO1" s="21"/>
+      <c r="ACP1" s="21"/>
+      <c r="ACQ1" s="21"/>
+      <c r="ACR1" s="21"/>
+      <c r="ACS1" s="21"/>
+      <c r="ACT1" s="21"/>
+      <c r="ACU1" s="21"/>
+      <c r="ACV1" s="21"/>
+      <c r="ACW1" s="21"/>
+      <c r="ACX1" s="21"/>
+      <c r="ACY1" s="21"/>
+      <c r="ACZ1" s="21"/>
+      <c r="ADA1" s="21"/>
+      <c r="ADB1" s="21"/>
+      <c r="ADC1" s="21"/>
+      <c r="ADD1" s="21"/>
+      <c r="ADE1" s="21"/>
+      <c r="ADF1" s="21"/>
+      <c r="ADG1" s="21"/>
+      <c r="ADH1" s="21"/>
+      <c r="ADI1" s="21"/>
+      <c r="ADJ1" s="21"/>
+      <c r="ADK1" s="21"/>
+      <c r="ADL1" s="21"/>
+      <c r="ADM1" s="21"/>
+      <c r="ADN1" s="21"/>
+      <c r="ADO1" s="21"/>
+      <c r="ADP1" s="21"/>
+      <c r="ADQ1" s="21"/>
+      <c r="ADR1" s="21"/>
+      <c r="ADS1" s="21"/>
+      <c r="ADT1" s="21"/>
+      <c r="ADU1" s="21"/>
+      <c r="ADV1" s="21"/>
+      <c r="ADW1" s="21"/>
+      <c r="ADX1" s="21"/>
+      <c r="ADY1" s="21"/>
+      <c r="ADZ1" s="21"/>
+      <c r="AEA1" s="21"/>
+      <c r="AEB1" s="21"/>
+      <c r="AEC1" s="21"/>
+      <c r="AED1" s="21"/>
+      <c r="AEE1" s="21"/>
+      <c r="AEF1" s="21"/>
+      <c r="AEG1" s="21"/>
+      <c r="AEH1" s="21"/>
+      <c r="AEI1" s="21"/>
+      <c r="AEJ1" s="21"/>
+      <c r="AEK1" s="21"/>
+      <c r="AEL1" s="21"/>
+      <c r="AEM1" s="21"/>
+      <c r="AEN1" s="21"/>
+      <c r="AEO1" s="21"/>
+      <c r="AEP1" s="21"/>
+      <c r="AEQ1" s="21"/>
+      <c r="AER1" s="21"/>
+      <c r="AES1" s="21"/>
+      <c r="AET1" s="21"/>
+      <c r="AEU1" s="21"/>
+      <c r="AEV1" s="21"/>
+      <c r="AEW1" s="21"/>
+      <c r="AEX1" s="21"/>
+      <c r="AEY1" s="21"/>
+      <c r="AEZ1" s="21"/>
+      <c r="AFA1" s="21"/>
+      <c r="AFB1" s="21"/>
+      <c r="AFC1" s="21"/>
+      <c r="AFD1" s="21"/>
+      <c r="AFE1" s="21"/>
+      <c r="AFF1" s="21"/>
+      <c r="AFG1" s="21"/>
+      <c r="AFH1" s="21"/>
+      <c r="AFI1" s="21"/>
+      <c r="AFJ1" s="21"/>
+      <c r="AFK1" s="21"/>
+      <c r="AFL1" s="21"/>
+      <c r="AFM1" s="21"/>
+      <c r="AFN1" s="21"/>
+      <c r="AFO1" s="21"/>
+      <c r="AFP1" s="21"/>
+      <c r="AFQ1" s="21"/>
+      <c r="AFR1" s="21"/>
+      <c r="AFS1" s="21"/>
+      <c r="AFT1" s="21"/>
+      <c r="AFU1" s="21"/>
+      <c r="AFV1" s="21"/>
+      <c r="AFW1" s="21"/>
+      <c r="AFX1" s="21"/>
+      <c r="AFY1" s="21"/>
+      <c r="AFZ1" s="21"/>
+      <c r="AGA1" s="21"/>
+      <c r="AGB1" s="21"/>
+      <c r="AGC1" s="21"/>
+      <c r="AGD1" s="21"/>
+      <c r="AGE1" s="21"/>
+      <c r="AGF1" s="21"/>
+      <c r="AGG1" s="21"/>
+      <c r="AGH1" s="21"/>
+      <c r="AGI1" s="21"/>
+      <c r="AGJ1" s="21"/>
+      <c r="AGK1" s="21"/>
+      <c r="AGL1" s="21"/>
+      <c r="AGM1" s="21"/>
+      <c r="AGN1" s="21"/>
+      <c r="AGO1" s="21"/>
+      <c r="AGP1" s="21"/>
+      <c r="AGQ1" s="21"/>
+      <c r="AGR1" s="21"/>
+      <c r="AGS1" s="21"/>
+      <c r="AGT1" s="21"/>
+      <c r="AGU1" s="21"/>
+      <c r="AGV1" s="21"/>
+      <c r="AGW1" s="21"/>
+      <c r="AGX1" s="21"/>
+      <c r="AGY1" s="21"/>
+      <c r="AGZ1" s="21"/>
+      <c r="AHA1" s="21"/>
+      <c r="AHB1" s="21"/>
+      <c r="AHC1" s="21"/>
+      <c r="AHD1" s="21"/>
+      <c r="AHE1" s="21"/>
+      <c r="AHF1" s="21"/>
+      <c r="AHG1" s="21"/>
+      <c r="AHH1" s="21"/>
+      <c r="AHI1" s="21"/>
+      <c r="AHJ1" s="21"/>
+      <c r="AHK1" s="21"/>
+      <c r="AHL1" s="21"/>
+      <c r="AHM1" s="21"/>
+      <c r="AHN1" s="21"/>
+      <c r="AHO1" s="21"/>
+      <c r="AHP1" s="21"/>
+      <c r="AHQ1" s="21"/>
+      <c r="AHR1" s="21"/>
+      <c r="AHS1" s="21"/>
+      <c r="AHT1" s="21"/>
+      <c r="AHU1" s="21"/>
+      <c r="AHV1" s="21"/>
+      <c r="AHW1" s="21"/>
+      <c r="AHX1" s="21"/>
+      <c r="AHY1" s="21"/>
+      <c r="AHZ1" s="21"/>
+      <c r="AIA1" s="21"/>
+      <c r="AIB1" s="21"/>
+      <c r="AIC1" s="21"/>
+      <c r="AID1" s="21"/>
+      <c r="AIE1" s="21"/>
+      <c r="AIF1" s="21"/>
+      <c r="AIG1" s="21"/>
+      <c r="AIH1" s="21"/>
+      <c r="AII1" s="21"/>
+      <c r="AIJ1" s="21"/>
+      <c r="AIK1" s="21"/>
+      <c r="AIL1" s="21"/>
+      <c r="AIM1" s="21"/>
+      <c r="AIN1" s="21"/>
+      <c r="AIO1" s="21"/>
+      <c r="AIP1" s="21"/>
+      <c r="AIQ1" s="21"/>
+      <c r="AIR1" s="21"/>
+      <c r="AIS1" s="21"/>
+      <c r="AIT1" s="21"/>
+      <c r="AIU1" s="21"/>
+      <c r="AIV1" s="21"/>
+      <c r="AIW1" s="21"/>
+      <c r="AIX1" s="21"/>
+      <c r="AIY1" s="21"/>
+      <c r="AIZ1" s="21"/>
+      <c r="AJA1" s="21"/>
+      <c r="AJB1" s="21"/>
+      <c r="AJC1" s="21"/>
+      <c r="AJD1" s="21"/>
+      <c r="AJE1" s="21"/>
+      <c r="AJF1" s="21"/>
+      <c r="AJG1" s="21"/>
+      <c r="AJH1" s="21"/>
+      <c r="AJI1" s="21"/>
+      <c r="AJJ1" s="21"/>
+      <c r="AJK1" s="21"/>
+      <c r="AJL1" s="21"/>
+      <c r="AJM1" s="21"/>
+      <c r="AJN1" s="21"/>
+      <c r="AJO1" s="21"/>
+      <c r="AJP1" s="21"/>
+      <c r="AJQ1" s="21"/>
+      <c r="AJR1" s="21"/>
+      <c r="AJS1" s="21"/>
+      <c r="AJT1" s="21"/>
+      <c r="AJU1" s="21"/>
+      <c r="AJV1" s="21"/>
+      <c r="AJW1" s="21"/>
+      <c r="AJX1" s="21"/>
+      <c r="AJY1" s="21"/>
+      <c r="AJZ1" s="21"/>
+      <c r="AKA1" s="21"/>
+      <c r="AKB1" s="21"/>
+      <c r="AKC1" s="21"/>
+      <c r="AKD1" s="21"/>
+      <c r="AKE1" s="21"/>
+      <c r="AKF1" s="21"/>
+      <c r="AKG1" s="21"/>
+      <c r="AKH1" s="21"/>
+      <c r="AKI1" s="21"/>
+      <c r="AKJ1" s="21"/>
+      <c r="AKK1" s="21"/>
+      <c r="AKL1" s="21"/>
+      <c r="AKM1" s="21"/>
+      <c r="AKN1" s="21"/>
+      <c r="AKO1" s="21"/>
+      <c r="AKP1" s="21"/>
+      <c r="AKQ1" s="21"/>
+      <c r="AKR1" s="21"/>
+      <c r="AKS1" s="21"/>
+      <c r="AKT1" s="21"/>
+      <c r="AKU1" s="21"/>
+      <c r="AKV1" s="21"/>
+      <c r="AKW1" s="21"/>
+      <c r="AKX1" s="21"/>
+      <c r="AKY1" s="21"/>
+      <c r="AKZ1" s="21"/>
+      <c r="ALA1" s="21"/>
+      <c r="ALB1" s="21"/>
+      <c r="ALC1" s="21"/>
+      <c r="ALD1" s="21"/>
+      <c r="ALE1" s="21"/>
+      <c r="ALF1" s="21"/>
+      <c r="ALG1" s="21"/>
+      <c r="ALH1" s="21"/>
+      <c r="ALI1" s="21"/>
+      <c r="ALJ1" s="21"/>
+      <c r="ALK1" s="21"/>
+      <c r="ALL1" s="21"/>
+      <c r="ALM1" s="21"/>
+      <c r="ALN1" s="21"/>
+      <c r="ALO1" s="21"/>
+      <c r="ALP1" s="21"/>
+      <c r="ALQ1" s="21"/>
+      <c r="ALR1" s="21"/>
+      <c r="ALS1" s="21"/>
+      <c r="ALT1" s="21"/>
+      <c r="ALU1" s="21"/>
+      <c r="ALV1" s="21"/>
+      <c r="ALW1" s="21"/>
+      <c r="ALX1" s="21"/>
+      <c r="ALY1" s="21"/>
+      <c r="ALZ1" s="21"/>
+      <c r="AMA1" s="21"/>
+      <c r="AMB1" s="21"/>
+      <c r="AMC1" s="21"/>
+      <c r="AMD1" s="21"/>
+      <c r="AME1" s="21"/>
+      <c r="AMF1" s="21"/>
+      <c r="AMG1" s="21"/>
+      <c r="AMH1" s="21"/>
+      <c r="AMI1" s="21"/>
+      <c r="AMJ1" s="21"/>
+      <c r="AMK1" s="21"/>
+    </row>
+    <row r="2" spans="1:1025" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:1025" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1025" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1025" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1025" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1025" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1025" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="G25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:1025" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:1025" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:1025" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:1025" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="17"/>
+      <c r="AU38" s="17"/>
+      <c r="AV38" s="17"/>
+      <c r="AW38" s="17"/>
+      <c r="AX38" s="17"/>
+      <c r="AY38" s="17"/>
+      <c r="AZ38" s="17"/>
+      <c r="BA38" s="17"/>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="17"/>
+      <c r="BD38" s="17"/>
+      <c r="BE38" s="17"/>
+      <c r="BF38" s="17"/>
+      <c r="BG38" s="17"/>
+      <c r="BH38" s="17"/>
+      <c r="BI38" s="17"/>
+      <c r="BJ38" s="17"/>
+      <c r="BK38" s="17"/>
+      <c r="BL38" s="17"/>
+      <c r="BM38" s="17"/>
+      <c r="BN38" s="17"/>
+      <c r="BO38" s="17"/>
+      <c r="BP38" s="17"/>
+      <c r="BQ38" s="17"/>
+      <c r="BR38" s="17"/>
+      <c r="BS38" s="17"/>
+      <c r="BT38" s="17"/>
+      <c r="BU38" s="17"/>
+      <c r="BV38" s="17"/>
+      <c r="BW38" s="17"/>
+      <c r="BX38" s="17"/>
+      <c r="BY38" s="17"/>
+      <c r="BZ38" s="17"/>
+      <c r="CA38" s="17"/>
+      <c r="CB38" s="17"/>
+      <c r="CC38" s="17"/>
+      <c r="CD38" s="17"/>
+      <c r="CE38" s="17"/>
+      <c r="CF38" s="17"/>
+      <c r="CG38" s="17"/>
+      <c r="CH38" s="17"/>
+      <c r="CI38" s="17"/>
+      <c r="CJ38" s="17"/>
+      <c r="CK38" s="17"/>
+      <c r="CL38" s="17"/>
+      <c r="CM38" s="17"/>
+      <c r="CN38" s="17"/>
+      <c r="CO38" s="17"/>
+      <c r="CP38" s="17"/>
+      <c r="CQ38" s="17"/>
+      <c r="CR38" s="17"/>
+      <c r="CS38" s="17"/>
+      <c r="CT38" s="17"/>
+      <c r="CU38" s="17"/>
+      <c r="CV38" s="17"/>
+      <c r="CW38" s="17"/>
+      <c r="CX38" s="17"/>
+      <c r="CY38" s="17"/>
+      <c r="CZ38" s="17"/>
+      <c r="DA38" s="17"/>
+      <c r="DB38" s="17"/>
+      <c r="DC38" s="17"/>
+      <c r="DD38" s="17"/>
+      <c r="DE38" s="17"/>
+      <c r="DF38" s="17"/>
+      <c r="DG38" s="17"/>
+      <c r="DH38" s="17"/>
+      <c r="DI38" s="17"/>
+      <c r="DJ38" s="17"/>
+      <c r="DK38" s="17"/>
+      <c r="DL38" s="17"/>
+      <c r="DM38" s="17"/>
+      <c r="DN38" s="17"/>
+      <c r="DO38" s="17"/>
+      <c r="DP38" s="17"/>
+      <c r="DQ38" s="17"/>
+      <c r="DR38" s="17"/>
+      <c r="DS38" s="17"/>
+      <c r="DT38" s="17"/>
+      <c r="DU38" s="17"/>
+      <c r="DV38" s="17"/>
+      <c r="DW38" s="17"/>
+      <c r="DX38" s="17"/>
+      <c r="DY38" s="17"/>
+      <c r="DZ38" s="17"/>
+      <c r="EA38" s="17"/>
+      <c r="EB38" s="17"/>
+      <c r="EC38" s="17"/>
+      <c r="ED38" s="17"/>
+      <c r="EE38" s="17"/>
+      <c r="EF38" s="17"/>
+      <c r="EG38" s="17"/>
+      <c r="EH38" s="17"/>
+      <c r="EI38" s="17"/>
+      <c r="EJ38" s="17"/>
+      <c r="EK38" s="17"/>
+      <c r="EL38" s="17"/>
+      <c r="EM38" s="17"/>
+      <c r="EN38" s="17"/>
+      <c r="EO38" s="17"/>
+      <c r="EP38" s="17"/>
+      <c r="EQ38" s="17"/>
+      <c r="ER38" s="17"/>
+      <c r="ES38" s="17"/>
+      <c r="ET38" s="17"/>
+      <c r="EU38" s="17"/>
+      <c r="EV38" s="17"/>
+      <c r="EW38" s="17"/>
+      <c r="EX38" s="17"/>
+      <c r="EY38" s="17"/>
+      <c r="EZ38" s="17"/>
+      <c r="FA38" s="17"/>
+      <c r="FB38" s="17"/>
+      <c r="FC38" s="17"/>
+      <c r="FD38" s="17"/>
+      <c r="FE38" s="17"/>
+      <c r="FF38" s="17"/>
+      <c r="FG38" s="17"/>
+      <c r="FH38" s="17"/>
+      <c r="FI38" s="17"/>
+      <c r="FJ38" s="17"/>
+      <c r="FK38" s="17"/>
+      <c r="FL38" s="17"/>
+      <c r="FM38" s="17"/>
+      <c r="FN38" s="17"/>
+      <c r="FO38" s="17"/>
+      <c r="FP38" s="17"/>
+      <c r="FQ38" s="17"/>
+      <c r="FR38" s="17"/>
+      <c r="FS38" s="17"/>
+      <c r="FT38" s="17"/>
+      <c r="FU38" s="17"/>
+      <c r="FV38" s="17"/>
+      <c r="FW38" s="17"/>
+      <c r="FX38" s="17"/>
+      <c r="FY38" s="17"/>
+      <c r="FZ38" s="17"/>
+      <c r="GA38" s="17"/>
+      <c r="GB38" s="17"/>
+      <c r="GC38" s="17"/>
+      <c r="GD38" s="17"/>
+      <c r="GE38" s="17"/>
+      <c r="GF38" s="17"/>
+      <c r="GG38" s="17"/>
+      <c r="GH38" s="17"/>
+      <c r="GI38" s="17"/>
+      <c r="GJ38" s="17"/>
+      <c r="GK38" s="17"/>
+      <c r="GL38" s="17"/>
+      <c r="GM38" s="17"/>
+      <c r="GN38" s="17"/>
+      <c r="GO38" s="17"/>
+      <c r="GP38" s="17"/>
+      <c r="GQ38" s="17"/>
+      <c r="GR38" s="17"/>
+      <c r="GS38" s="17"/>
+      <c r="GT38" s="17"/>
+      <c r="GU38" s="17"/>
+      <c r="GV38" s="17"/>
+      <c r="GW38" s="17"/>
+      <c r="GX38" s="17"/>
+      <c r="GY38" s="17"/>
+      <c r="GZ38" s="17"/>
+      <c r="HA38" s="17"/>
+      <c r="HB38" s="17"/>
+      <c r="HC38" s="17"/>
+      <c r="HD38" s="17"/>
+      <c r="HE38" s="17"/>
+      <c r="HF38" s="17"/>
+      <c r="HG38" s="17"/>
+      <c r="HH38" s="17"/>
+      <c r="HI38" s="17"/>
+      <c r="HJ38" s="17"/>
+      <c r="HK38" s="17"/>
+      <c r="HL38" s="17"/>
+      <c r="HM38" s="17"/>
+      <c r="HN38" s="17"/>
+      <c r="HO38" s="17"/>
+      <c r="HP38" s="17"/>
+      <c r="HQ38" s="17"/>
+      <c r="HR38" s="17"/>
+      <c r="HS38" s="17"/>
+      <c r="HT38" s="17"/>
+      <c r="HU38" s="17"/>
+      <c r="HV38" s="17"/>
+      <c r="HW38" s="17"/>
+      <c r="HX38" s="17"/>
+      <c r="HY38" s="17"/>
+      <c r="HZ38" s="17"/>
+      <c r="IA38" s="17"/>
+      <c r="IB38" s="17"/>
+      <c r="IC38" s="17"/>
+      <c r="ID38" s="17"/>
+      <c r="IE38" s="17"/>
+      <c r="IF38" s="17"/>
+      <c r="IG38" s="17"/>
+      <c r="IH38" s="17"/>
+      <c r="II38" s="17"/>
+      <c r="IJ38" s="17"/>
+      <c r="IK38" s="17"/>
+      <c r="IL38" s="17"/>
+      <c r="IM38" s="17"/>
+      <c r="IN38" s="17"/>
+      <c r="IO38" s="17"/>
+      <c r="IP38" s="17"/>
+      <c r="IQ38" s="17"/>
+      <c r="IR38" s="17"/>
+      <c r="IS38" s="17"/>
+      <c r="IT38" s="17"/>
+      <c r="IU38" s="17"/>
+      <c r="IV38" s="17"/>
+      <c r="IW38" s="17"/>
+      <c r="IX38" s="17"/>
+      <c r="IY38" s="17"/>
+      <c r="IZ38" s="17"/>
+      <c r="JA38" s="17"/>
+      <c r="JB38" s="17"/>
+      <c r="JC38" s="17"/>
+      <c r="JD38" s="17"/>
+      <c r="JE38" s="17"/>
+      <c r="JF38" s="17"/>
+      <c r="JG38" s="17"/>
+      <c r="JH38" s="17"/>
+      <c r="JI38" s="17"/>
+      <c r="JJ38" s="17"/>
+      <c r="JK38" s="17"/>
+      <c r="JL38" s="17"/>
+      <c r="JM38" s="17"/>
+      <c r="JN38" s="17"/>
+      <c r="JO38" s="17"/>
+      <c r="JP38" s="17"/>
+      <c r="JQ38" s="17"/>
+      <c r="JR38" s="17"/>
+      <c r="JS38" s="17"/>
+      <c r="JT38" s="17"/>
+      <c r="JU38" s="17"/>
+      <c r="JV38" s="17"/>
+      <c r="JW38" s="17"/>
+      <c r="JX38" s="17"/>
+      <c r="JY38" s="17"/>
+      <c r="JZ38" s="17"/>
+      <c r="KA38" s="17"/>
+      <c r="KB38" s="17"/>
+      <c r="KC38" s="17"/>
+      <c r="KD38" s="17"/>
+      <c r="KE38" s="17"/>
+      <c r="KF38" s="17"/>
+      <c r="KG38" s="17"/>
+      <c r="KH38" s="17"/>
+      <c r="KI38" s="17"/>
+      <c r="KJ38" s="17"/>
+      <c r="KK38" s="17"/>
+      <c r="KL38" s="17"/>
+      <c r="KM38" s="17"/>
+      <c r="KN38" s="17"/>
+      <c r="KO38" s="17"/>
+      <c r="KP38" s="17"/>
+      <c r="KQ38" s="17"/>
+      <c r="KR38" s="17"/>
+      <c r="KS38" s="17"/>
+      <c r="KT38" s="17"/>
+      <c r="KU38" s="17"/>
+      <c r="KV38" s="17"/>
+      <c r="KW38" s="17"/>
+      <c r="KX38" s="17"/>
+      <c r="KY38" s="17"/>
+      <c r="KZ38" s="17"/>
+      <c r="LA38" s="17"/>
+      <c r="LB38" s="17"/>
+      <c r="LC38" s="17"/>
+      <c r="LD38" s="17"/>
+      <c r="LE38" s="17"/>
+      <c r="LF38" s="17"/>
+      <c r="LG38" s="17"/>
+      <c r="LH38" s="17"/>
+      <c r="LI38" s="17"/>
+      <c r="LJ38" s="17"/>
+      <c r="LK38" s="17"/>
+      <c r="LL38" s="17"/>
+      <c r="LM38" s="17"/>
+      <c r="LN38" s="17"/>
+      <c r="LO38" s="17"/>
+      <c r="LP38" s="17"/>
+      <c r="LQ38" s="17"/>
+      <c r="LR38" s="17"/>
+      <c r="LS38" s="17"/>
+      <c r="LT38" s="17"/>
+      <c r="LU38" s="17"/>
+      <c r="LV38" s="17"/>
+      <c r="LW38" s="17"/>
+      <c r="LX38" s="17"/>
+      <c r="LY38" s="17"/>
+      <c r="LZ38" s="17"/>
+      <c r="MA38" s="17"/>
+      <c r="MB38" s="17"/>
+      <c r="MC38" s="17"/>
+      <c r="MD38" s="17"/>
+      <c r="ME38" s="17"/>
+      <c r="MF38" s="17"/>
+      <c r="MG38" s="17"/>
+      <c r="MH38" s="17"/>
+      <c r="MI38" s="17"/>
+      <c r="MJ38" s="17"/>
+      <c r="MK38" s="17"/>
+      <c r="ML38" s="17"/>
+      <c r="MM38" s="17"/>
+      <c r="MN38" s="17"/>
+      <c r="MO38" s="17"/>
+      <c r="MP38" s="17"/>
+      <c r="MQ38" s="17"/>
+      <c r="MR38" s="17"/>
+      <c r="MS38" s="17"/>
+      <c r="MT38" s="17"/>
+      <c r="MU38" s="17"/>
+      <c r="MV38" s="17"/>
+      <c r="MW38" s="17"/>
+      <c r="MX38" s="17"/>
+      <c r="MY38" s="17"/>
+      <c r="MZ38" s="17"/>
+      <c r="NA38" s="17"/>
+      <c r="NB38" s="17"/>
+      <c r="NC38" s="17"/>
+      <c r="ND38" s="17"/>
+      <c r="NE38" s="17"/>
+      <c r="NF38" s="17"/>
+      <c r="NG38" s="17"/>
+      <c r="NH38" s="17"/>
+      <c r="NI38" s="17"/>
+      <c r="NJ38" s="17"/>
+      <c r="NK38" s="17"/>
+      <c r="NL38" s="17"/>
+      <c r="NM38" s="17"/>
+      <c r="NN38" s="17"/>
+      <c r="NO38" s="17"/>
+      <c r="NP38" s="17"/>
+      <c r="NQ38" s="17"/>
+      <c r="NR38" s="17"/>
+      <c r="NS38" s="17"/>
+      <c r="NT38" s="17"/>
+      <c r="NU38" s="17"/>
+      <c r="NV38" s="17"/>
+      <c r="NW38" s="17"/>
+      <c r="NX38" s="17"/>
+      <c r="NY38" s="17"/>
+      <c r="NZ38" s="17"/>
+      <c r="OA38" s="17"/>
+      <c r="OB38" s="17"/>
+      <c r="OC38" s="17"/>
+      <c r="OD38" s="17"/>
+      <c r="OE38" s="17"/>
+      <c r="OF38" s="17"/>
+      <c r="OG38" s="17"/>
+      <c r="OH38" s="17"/>
+      <c r="OI38" s="17"/>
+      <c r="OJ38" s="17"/>
+      <c r="OK38" s="17"/>
+      <c r="OL38" s="17"/>
+      <c r="OM38" s="17"/>
+      <c r="ON38" s="17"/>
+      <c r="OO38" s="17"/>
+      <c r="OP38" s="17"/>
+      <c r="OQ38" s="17"/>
+      <c r="OR38" s="17"/>
+      <c r="OS38" s="17"/>
+      <c r="OT38" s="17"/>
+      <c r="OU38" s="17"/>
+      <c r="OV38" s="17"/>
+      <c r="OW38" s="17"/>
+      <c r="OX38" s="17"/>
+      <c r="OY38" s="17"/>
+      <c r="OZ38" s="17"/>
+      <c r="PA38" s="17"/>
+      <c r="PB38" s="17"/>
+      <c r="PC38" s="17"/>
+      <c r="PD38" s="17"/>
+      <c r="PE38" s="17"/>
+      <c r="PF38" s="17"/>
+      <c r="PG38" s="17"/>
+      <c r="PH38" s="17"/>
+      <c r="PI38" s="17"/>
+      <c r="PJ38" s="17"/>
+      <c r="PK38" s="17"/>
+      <c r="PL38" s="17"/>
+      <c r="PM38" s="17"/>
+      <c r="PN38" s="17"/>
+      <c r="PO38" s="17"/>
+      <c r="PP38" s="17"/>
+      <c r="PQ38" s="17"/>
+      <c r="PR38" s="17"/>
+      <c r="PS38" s="17"/>
+      <c r="PT38" s="17"/>
+      <c r="PU38" s="17"/>
+      <c r="PV38" s="17"/>
+      <c r="PW38" s="17"/>
+      <c r="PX38" s="17"/>
+      <c r="PY38" s="17"/>
+      <c r="PZ38" s="17"/>
+      <c r="QA38" s="17"/>
+      <c r="QB38" s="17"/>
+      <c r="QC38" s="17"/>
+      <c r="QD38" s="17"/>
+      <c r="QE38" s="17"/>
+      <c r="QF38" s="17"/>
+      <c r="QG38" s="17"/>
+      <c r="QH38" s="17"/>
+      <c r="QI38" s="17"/>
+      <c r="QJ38" s="17"/>
+      <c r="QK38" s="17"/>
+      <c r="QL38" s="17"/>
+      <c r="QM38" s="17"/>
+      <c r="QN38" s="17"/>
+      <c r="QO38" s="17"/>
+      <c r="QP38" s="17"/>
+      <c r="QQ38" s="17"/>
+      <c r="QR38" s="17"/>
+      <c r="QS38" s="17"/>
+      <c r="QT38" s="17"/>
+      <c r="QU38" s="17"/>
+      <c r="QV38" s="17"/>
+      <c r="QW38" s="17"/>
+      <c r="QX38" s="17"/>
+      <c r="QY38" s="17"/>
+      <c r="QZ38" s="17"/>
+      <c r="RA38" s="17"/>
+      <c r="RB38" s="17"/>
+      <c r="RC38" s="17"/>
+      <c r="RD38" s="17"/>
+      <c r="RE38" s="17"/>
+      <c r="RF38" s="17"/>
+      <c r="RG38" s="17"/>
+      <c r="RH38" s="17"/>
+      <c r="RI38" s="17"/>
+      <c r="RJ38" s="17"/>
+      <c r="RK38" s="17"/>
+      <c r="RL38" s="17"/>
+      <c r="RM38" s="17"/>
+      <c r="RN38" s="17"/>
+      <c r="RO38" s="17"/>
+      <c r="RP38" s="17"/>
+      <c r="RQ38" s="17"/>
+      <c r="RR38" s="17"/>
+      <c r="RS38" s="17"/>
+      <c r="RT38" s="17"/>
+      <c r="RU38" s="17"/>
+      <c r="RV38" s="17"/>
+      <c r="RW38" s="17"/>
+      <c r="RX38" s="17"/>
+      <c r="RY38" s="17"/>
+      <c r="RZ38" s="17"/>
+      <c r="SA38" s="17"/>
+      <c r="SB38" s="17"/>
+      <c r="SC38" s="17"/>
+      <c r="SD38" s="17"/>
+      <c r="SE38" s="17"/>
+      <c r="SF38" s="17"/>
+      <c r="SG38" s="17"/>
+      <c r="SH38" s="17"/>
+      <c r="SI38" s="17"/>
+      <c r="SJ38" s="17"/>
+      <c r="SK38" s="17"/>
+      <c r="SL38" s="17"/>
+      <c r="SM38" s="17"/>
+      <c r="SN38" s="17"/>
+      <c r="SO38" s="17"/>
+      <c r="SP38" s="17"/>
+      <c r="SQ38" s="17"/>
+      <c r="SR38" s="17"/>
+      <c r="SS38" s="17"/>
+      <c r="ST38" s="17"/>
+      <c r="SU38" s="17"/>
+      <c r="SV38" s="17"/>
+      <c r="SW38" s="17"/>
+      <c r="SX38" s="17"/>
+      <c r="SY38" s="17"/>
+      <c r="SZ38" s="17"/>
+      <c r="TA38" s="17"/>
+      <c r="TB38" s="17"/>
+      <c r="TC38" s="17"/>
+      <c r="TD38" s="17"/>
+      <c r="TE38" s="17"/>
+      <c r="TF38" s="17"/>
+      <c r="TG38" s="17"/>
+      <c r="TH38" s="17"/>
+      <c r="TI38" s="17"/>
+      <c r="TJ38" s="17"/>
+      <c r="TK38" s="17"/>
+      <c r="TL38" s="17"/>
+      <c r="TM38" s="17"/>
+      <c r="TN38" s="17"/>
+      <c r="TO38" s="17"/>
+      <c r="TP38" s="17"/>
+      <c r="TQ38" s="17"/>
+      <c r="TR38" s="17"/>
+      <c r="TS38" s="17"/>
+      <c r="TT38" s="17"/>
+      <c r="TU38" s="17"/>
+      <c r="TV38" s="17"/>
+      <c r="TW38" s="17"/>
+      <c r="TX38" s="17"/>
+      <c r="TY38" s="17"/>
+      <c r="TZ38" s="17"/>
+      <c r="UA38" s="17"/>
+      <c r="UB38" s="17"/>
+      <c r="UC38" s="17"/>
+      <c r="UD38" s="17"/>
+      <c r="UE38" s="17"/>
+      <c r="UF38" s="17"/>
+      <c r="UG38" s="17"/>
+      <c r="UH38" s="17"/>
+      <c r="UI38" s="17"/>
+      <c r="UJ38" s="17"/>
+      <c r="UK38" s="17"/>
+      <c r="UL38" s="17"/>
+      <c r="UM38" s="17"/>
+      <c r="UN38" s="17"/>
+      <c r="UO38" s="17"/>
+      <c r="UP38" s="17"/>
+      <c r="UQ38" s="17"/>
+      <c r="UR38" s="17"/>
+      <c r="US38" s="17"/>
+      <c r="UT38" s="17"/>
+      <c r="UU38" s="17"/>
+      <c r="UV38" s="17"/>
+      <c r="UW38" s="17"/>
+      <c r="UX38" s="17"/>
+      <c r="UY38" s="17"/>
+      <c r="UZ38" s="17"/>
+      <c r="VA38" s="17"/>
+      <c r="VB38" s="17"/>
+      <c r="VC38" s="17"/>
+      <c r="VD38" s="17"/>
+      <c r="VE38" s="17"/>
+      <c r="VF38" s="17"/>
+      <c r="VG38" s="17"/>
+      <c r="VH38" s="17"/>
+      <c r="VI38" s="17"/>
+      <c r="VJ38" s="17"/>
+      <c r="VK38" s="17"/>
+      <c r="VL38" s="17"/>
+      <c r="VM38" s="17"/>
+      <c r="VN38" s="17"/>
+      <c r="VO38" s="17"/>
+      <c r="VP38" s="17"/>
+      <c r="VQ38" s="17"/>
+      <c r="VR38" s="17"/>
+      <c r="VS38" s="17"/>
+      <c r="VT38" s="17"/>
+      <c r="VU38" s="17"/>
+      <c r="VV38" s="17"/>
+      <c r="VW38" s="17"/>
+      <c r="VX38" s="17"/>
+      <c r="VY38" s="17"/>
+      <c r="VZ38" s="17"/>
+      <c r="WA38" s="17"/>
+      <c r="WB38" s="17"/>
+      <c r="WC38" s="17"/>
+      <c r="WD38" s="17"/>
+      <c r="WE38" s="17"/>
+      <c r="WF38" s="17"/>
+      <c r="WG38" s="17"/>
+      <c r="WH38" s="17"/>
+      <c r="WI38" s="17"/>
+      <c r="WJ38" s="17"/>
+      <c r="WK38" s="17"/>
+      <c r="WL38" s="17"/>
+      <c r="WM38" s="17"/>
+      <c r="WN38" s="17"/>
+      <c r="WO38" s="17"/>
+      <c r="WP38" s="17"/>
+      <c r="WQ38" s="17"/>
+      <c r="WR38" s="17"/>
+      <c r="WS38" s="17"/>
+      <c r="WT38" s="17"/>
+      <c r="WU38" s="17"/>
+      <c r="WV38" s="17"/>
+      <c r="WW38" s="17"/>
+      <c r="WX38" s="17"/>
+      <c r="WY38" s="17"/>
+      <c r="WZ38" s="17"/>
+      <c r="XA38" s="17"/>
+      <c r="XB38" s="17"/>
+      <c r="XC38" s="17"/>
+      <c r="XD38" s="17"/>
+      <c r="XE38" s="17"/>
+      <c r="XF38" s="17"/>
+      <c r="XG38" s="17"/>
+      <c r="XH38" s="17"/>
+      <c r="XI38" s="17"/>
+      <c r="XJ38" s="17"/>
+      <c r="XK38" s="17"/>
+      <c r="XL38" s="17"/>
+      <c r="XM38" s="17"/>
+      <c r="XN38" s="17"/>
+      <c r="XO38" s="17"/>
+      <c r="XP38" s="17"/>
+      <c r="XQ38" s="17"/>
+      <c r="XR38" s="17"/>
+      <c r="XS38" s="17"/>
+      <c r="XT38" s="17"/>
+      <c r="XU38" s="17"/>
+      <c r="XV38" s="17"/>
+      <c r="XW38" s="17"/>
+      <c r="XX38" s="17"/>
+      <c r="XY38" s="17"/>
+      <c r="XZ38" s="17"/>
+      <c r="YA38" s="17"/>
+      <c r="YB38" s="17"/>
+      <c r="YC38" s="17"/>
+      <c r="YD38" s="17"/>
+      <c r="YE38" s="17"/>
+      <c r="YF38" s="17"/>
+      <c r="YG38" s="17"/>
+      <c r="YH38" s="17"/>
+      <c r="YI38" s="17"/>
+      <c r="YJ38" s="17"/>
+      <c r="YK38" s="17"/>
+      <c r="YL38" s="17"/>
+      <c r="YM38" s="17"/>
+      <c r="YN38" s="17"/>
+      <c r="YO38" s="17"/>
+      <c r="YP38" s="17"/>
+      <c r="YQ38" s="17"/>
+      <c r="YR38" s="17"/>
+      <c r="YS38" s="17"/>
+      <c r="YT38" s="17"/>
+      <c r="YU38" s="17"/>
+      <c r="YV38" s="17"/>
+      <c r="YW38" s="17"/>
+      <c r="YX38" s="17"/>
+      <c r="YY38" s="17"/>
+      <c r="YZ38" s="17"/>
+      <c r="ZA38" s="17"/>
+      <c r="ZB38" s="17"/>
+      <c r="ZC38" s="17"/>
+      <c r="ZD38" s="17"/>
+      <c r="ZE38" s="17"/>
+      <c r="ZF38" s="17"/>
+      <c r="ZG38" s="17"/>
+      <c r="ZH38" s="17"/>
+      <c r="ZI38" s="17"/>
+      <c r="ZJ38" s="17"/>
+      <c r="ZK38" s="17"/>
+      <c r="ZL38" s="17"/>
+      <c r="ZM38" s="17"/>
+      <c r="ZN38" s="17"/>
+      <c r="ZO38" s="17"/>
+      <c r="ZP38" s="17"/>
+      <c r="ZQ38" s="17"/>
+      <c r="ZR38" s="17"/>
+      <c r="ZS38" s="17"/>
+      <c r="ZT38" s="17"/>
+      <c r="ZU38" s="17"/>
+      <c r="ZV38" s="17"/>
+      <c r="ZW38" s="17"/>
+      <c r="ZX38" s="17"/>
+      <c r="ZY38" s="17"/>
+      <c r="ZZ38" s="17"/>
+      <c r="AAA38" s="17"/>
+      <c r="AAB38" s="17"/>
+      <c r="AAC38" s="17"/>
+      <c r="AAD38" s="17"/>
+      <c r="AAE38" s="17"/>
+      <c r="AAF38" s="17"/>
+      <c r="AAG38" s="17"/>
+      <c r="AAH38" s="17"/>
+      <c r="AAI38" s="17"/>
+      <c r="AAJ38" s="17"/>
+      <c r="AAK38" s="17"/>
+      <c r="AAL38" s="17"/>
+      <c r="AAM38" s="17"/>
+      <c r="AAN38" s="17"/>
+      <c r="AAO38" s="17"/>
+      <c r="AAP38" s="17"/>
+      <c r="AAQ38" s="17"/>
+      <c r="AAR38" s="17"/>
+      <c r="AAS38" s="17"/>
+      <c r="AAT38" s="17"/>
+      <c r="AAU38" s="17"/>
+      <c r="AAV38" s="17"/>
+      <c r="AAW38" s="17"/>
+      <c r="AAX38" s="17"/>
+      <c r="AAY38" s="17"/>
+      <c r="AAZ38" s="17"/>
+      <c r="ABA38" s="17"/>
+      <c r="ABB38" s="17"/>
+      <c r="ABC38" s="17"/>
+      <c r="ABD38" s="17"/>
+      <c r="ABE38" s="17"/>
+      <c r="ABF38" s="17"/>
+      <c r="ABG38" s="17"/>
+      <c r="ABH38" s="17"/>
+      <c r="ABI38" s="17"/>
+      <c r="ABJ38" s="17"/>
+      <c r="ABK38" s="17"/>
+      <c r="ABL38" s="17"/>
+      <c r="ABM38" s="17"/>
+      <c r="ABN38" s="17"/>
+      <c r="ABO38" s="17"/>
+      <c r="ABP38" s="17"/>
+      <c r="ABQ38" s="17"/>
+      <c r="ABR38" s="17"/>
+      <c r="ABS38" s="17"/>
+      <c r="ABT38" s="17"/>
+      <c r="ABU38" s="17"/>
+      <c r="ABV38" s="17"/>
+      <c r="ABW38" s="17"/>
+      <c r="ABX38" s="17"/>
+      <c r="ABY38" s="17"/>
+      <c r="ABZ38" s="17"/>
+      <c r="ACA38" s="17"/>
+      <c r="ACB38" s="17"/>
+      <c r="ACC38" s="17"/>
+      <c r="ACD38" s="17"/>
+      <c r="ACE38" s="17"/>
+      <c r="ACF38" s="17"/>
+      <c r="ACG38" s="17"/>
+      <c r="ACH38" s="17"/>
+      <c r="ACI38" s="17"/>
+      <c r="ACJ38" s="17"/>
+      <c r="ACK38" s="17"/>
+      <c r="ACL38" s="17"/>
+      <c r="ACM38" s="17"/>
+      <c r="ACN38" s="17"/>
+      <c r="ACO38" s="17"/>
+      <c r="ACP38" s="17"/>
+      <c r="ACQ38" s="17"/>
+      <c r="ACR38" s="17"/>
+      <c r="ACS38" s="17"/>
+      <c r="ACT38" s="17"/>
+      <c r="ACU38" s="17"/>
+      <c r="ACV38" s="17"/>
+      <c r="ACW38" s="17"/>
+      <c r="ACX38" s="17"/>
+      <c r="ACY38" s="17"/>
+      <c r="ACZ38" s="17"/>
+      <c r="ADA38" s="17"/>
+      <c r="ADB38" s="17"/>
+      <c r="ADC38" s="17"/>
+      <c r="ADD38" s="17"/>
+      <c r="ADE38" s="17"/>
+      <c r="ADF38" s="17"/>
+      <c r="ADG38" s="17"/>
+      <c r="ADH38" s="17"/>
+      <c r="ADI38" s="17"/>
+      <c r="ADJ38" s="17"/>
+      <c r="ADK38" s="17"/>
+      <c r="ADL38" s="17"/>
+      <c r="ADM38" s="17"/>
+      <c r="ADN38" s="17"/>
+      <c r="ADO38" s="17"/>
+      <c r="ADP38" s="17"/>
+      <c r="ADQ38" s="17"/>
+      <c r="ADR38" s="17"/>
+      <c r="ADS38" s="17"/>
+      <c r="ADT38" s="17"/>
+      <c r="ADU38" s="17"/>
+      <c r="ADV38" s="17"/>
+      <c r="ADW38" s="17"/>
+      <c r="ADX38" s="17"/>
+      <c r="ADY38" s="17"/>
+      <c r="ADZ38" s="17"/>
+      <c r="AEA38" s="17"/>
+      <c r="AEB38" s="17"/>
+      <c r="AEC38" s="17"/>
+      <c r="AED38" s="17"/>
+      <c r="AEE38" s="17"/>
+      <c r="AEF38" s="17"/>
+      <c r="AEG38" s="17"/>
+      <c r="AEH38" s="17"/>
+      <c r="AEI38" s="17"/>
+      <c r="AEJ38" s="17"/>
+      <c r="AEK38" s="17"/>
+      <c r="AEL38" s="17"/>
+      <c r="AEM38" s="17"/>
+      <c r="AEN38" s="17"/>
+      <c r="AEO38" s="17"/>
+      <c r="AEP38" s="17"/>
+      <c r="AEQ38" s="17"/>
+      <c r="AER38" s="17"/>
+      <c r="AES38" s="17"/>
+      <c r="AET38" s="17"/>
+      <c r="AEU38" s="17"/>
+      <c r="AEV38" s="17"/>
+      <c r="AEW38" s="17"/>
+      <c r="AEX38" s="17"/>
+      <c r="AEY38" s="17"/>
+      <c r="AEZ38" s="17"/>
+      <c r="AFA38" s="17"/>
+      <c r="AFB38" s="17"/>
+      <c r="AFC38" s="17"/>
+      <c r="AFD38" s="17"/>
+      <c r="AFE38" s="17"/>
+      <c r="AFF38" s="17"/>
+      <c r="AFG38" s="17"/>
+      <c r="AFH38" s="17"/>
+      <c r="AFI38" s="17"/>
+      <c r="AFJ38" s="17"/>
+      <c r="AFK38" s="17"/>
+      <c r="AFL38" s="17"/>
+      <c r="AFM38" s="17"/>
+      <c r="AFN38" s="17"/>
+      <c r="AFO38" s="17"/>
+      <c r="AFP38" s="17"/>
+      <c r="AFQ38" s="17"/>
+      <c r="AFR38" s="17"/>
+      <c r="AFS38" s="17"/>
+      <c r="AFT38" s="17"/>
+      <c r="AFU38" s="17"/>
+      <c r="AFV38" s="17"/>
+      <c r="AFW38" s="17"/>
+      <c r="AFX38" s="17"/>
+      <c r="AFY38" s="17"/>
+      <c r="AFZ38" s="17"/>
+      <c r="AGA38" s="17"/>
+      <c r="AGB38" s="17"/>
+      <c r="AGC38" s="17"/>
+      <c r="AGD38" s="17"/>
+      <c r="AGE38" s="17"/>
+      <c r="AGF38" s="17"/>
+      <c r="AGG38" s="17"/>
+      <c r="AGH38" s="17"/>
+      <c r="AGI38" s="17"/>
+      <c r="AGJ38" s="17"/>
+      <c r="AGK38" s="17"/>
+      <c r="AGL38" s="17"/>
+      <c r="AGM38" s="17"/>
+      <c r="AGN38" s="17"/>
+      <c r="AGO38" s="17"/>
+      <c r="AGP38" s="17"/>
+      <c r="AGQ38" s="17"/>
+      <c r="AGR38" s="17"/>
+      <c r="AGS38" s="17"/>
+      <c r="AGT38" s="17"/>
+      <c r="AGU38" s="17"/>
+      <c r="AGV38" s="17"/>
+      <c r="AGW38" s="17"/>
+      <c r="AGX38" s="17"/>
+      <c r="AGY38" s="17"/>
+      <c r="AGZ38" s="17"/>
+      <c r="AHA38" s="17"/>
+      <c r="AHB38" s="17"/>
+      <c r="AHC38" s="17"/>
+      <c r="AHD38" s="17"/>
+      <c r="AHE38" s="17"/>
+      <c r="AHF38" s="17"/>
+      <c r="AHG38" s="17"/>
+      <c r="AHH38" s="17"/>
+      <c r="AHI38" s="17"/>
+      <c r="AHJ38" s="17"/>
+      <c r="AHK38" s="17"/>
+      <c r="AHL38" s="17"/>
+      <c r="AHM38" s="17"/>
+      <c r="AHN38" s="17"/>
+      <c r="AHO38" s="17"/>
+      <c r="AHP38" s="17"/>
+      <c r="AHQ38" s="17"/>
+      <c r="AHR38" s="17"/>
+      <c r="AHS38" s="17"/>
+      <c r="AHT38" s="17"/>
+      <c r="AHU38" s="17"/>
+      <c r="AHV38" s="17"/>
+      <c r="AHW38" s="17"/>
+      <c r="AHX38" s="17"/>
+      <c r="AHY38" s="17"/>
+      <c r="AHZ38" s="17"/>
+      <c r="AIA38" s="17"/>
+      <c r="AIB38" s="17"/>
+      <c r="AIC38" s="17"/>
+      <c r="AID38" s="17"/>
+      <c r="AIE38" s="17"/>
+      <c r="AIF38" s="17"/>
+      <c r="AIG38" s="17"/>
+      <c r="AIH38" s="17"/>
+      <c r="AII38" s="17"/>
+      <c r="AIJ38" s="17"/>
+      <c r="AIK38" s="17"/>
+      <c r="AIL38" s="17"/>
+      <c r="AIM38" s="17"/>
+      <c r="AIN38" s="17"/>
+      <c r="AIO38" s="17"/>
+      <c r="AIP38" s="17"/>
+      <c r="AIQ38" s="17"/>
+      <c r="AIR38" s="17"/>
+      <c r="AIS38" s="17"/>
+      <c r="AIT38" s="17"/>
+      <c r="AIU38" s="17"/>
+      <c r="AIV38" s="17"/>
+      <c r="AIW38" s="17"/>
+      <c r="AIX38" s="17"/>
+      <c r="AIY38" s="17"/>
+      <c r="AIZ38" s="17"/>
+      <c r="AJA38" s="17"/>
+      <c r="AJB38" s="17"/>
+      <c r="AJC38" s="17"/>
+      <c r="AJD38" s="17"/>
+      <c r="AJE38" s="17"/>
+      <c r="AJF38" s="17"/>
+      <c r="AJG38" s="17"/>
+      <c r="AJH38" s="17"/>
+      <c r="AJI38" s="17"/>
+      <c r="AJJ38" s="17"/>
+      <c r="AJK38" s="17"/>
+      <c r="AJL38" s="17"/>
+      <c r="AJM38" s="17"/>
+      <c r="AJN38" s="17"/>
+      <c r="AJO38" s="17"/>
+      <c r="AJP38" s="17"/>
+      <c r="AJQ38" s="17"/>
+      <c r="AJR38" s="17"/>
+      <c r="AJS38" s="17"/>
+      <c r="AJT38" s="17"/>
+      <c r="AJU38" s="17"/>
+      <c r="AJV38" s="17"/>
+      <c r="AJW38" s="17"/>
+      <c r="AJX38" s="17"/>
+      <c r="AJY38" s="17"/>
+      <c r="AJZ38" s="17"/>
+      <c r="AKA38" s="17"/>
+      <c r="AKB38" s="17"/>
+      <c r="AKC38" s="17"/>
+      <c r="AKD38" s="17"/>
+      <c r="AKE38" s="17"/>
+      <c r="AKF38" s="17"/>
+      <c r="AKG38" s="17"/>
+      <c r="AKH38" s="17"/>
+      <c r="AKI38" s="17"/>
+      <c r="AKJ38" s="17"/>
+      <c r="AKK38" s="17"/>
+      <c r="AKL38" s="17"/>
+      <c r="AKM38" s="17"/>
+      <c r="AKN38" s="17"/>
+      <c r="AKO38" s="17"/>
+      <c r="AKP38" s="17"/>
+      <c r="AKQ38" s="17"/>
+      <c r="AKR38" s="17"/>
+      <c r="AKS38" s="17"/>
+      <c r="AKT38" s="17"/>
+      <c r="AKU38" s="17"/>
+      <c r="AKV38" s="17"/>
+      <c r="AKW38" s="17"/>
+      <c r="AKX38" s="17"/>
+      <c r="AKY38" s="17"/>
+      <c r="AKZ38" s="17"/>
+      <c r="ALA38" s="17"/>
+      <c r="ALB38" s="17"/>
+      <c r="ALC38" s="17"/>
+      <c r="ALD38" s="17"/>
+      <c r="ALE38" s="17"/>
+      <c r="ALF38" s="17"/>
+      <c r="ALG38" s="17"/>
+      <c r="ALH38" s="17"/>
+      <c r="ALI38" s="17"/>
+      <c r="ALJ38" s="17"/>
+      <c r="ALK38" s="17"/>
+      <c r="ALL38" s="17"/>
+      <c r="ALM38" s="17"/>
+      <c r="ALN38" s="17"/>
+      <c r="ALO38" s="17"/>
+      <c r="ALP38" s="17"/>
+      <c r="ALQ38" s="17"/>
+      <c r="ALR38" s="17"/>
+      <c r="ALS38" s="17"/>
+      <c r="ALT38" s="17"/>
+      <c r="ALU38" s="17"/>
+      <c r="ALV38" s="17"/>
+      <c r="ALW38" s="17"/>
+      <c r="ALX38" s="17"/>
+      <c r="ALY38" s="17"/>
+      <c r="ALZ38" s="17"/>
+      <c r="AMA38" s="17"/>
+      <c r="AMB38" s="17"/>
+      <c r="AMC38" s="17"/>
+      <c r="AMD38" s="17"/>
+      <c r="AME38" s="17"/>
+      <c r="AMF38" s="17"/>
+      <c r="AMG38" s="17"/>
+      <c r="AMH38" s="17"/>
+      <c r="AMI38" s="17"/>
+      <c r="AMJ38" s="17"/>
+      <c r="AMK38" s="17"/>
+    </row>
+    <row r="39" spans="1:1025" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C39" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:1025" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:1025" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:1025" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C44" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C46" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:1025" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="C47" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C48" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25"/>
+      <c r="H48" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A38:I38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CDE65B41-9EC1-43E3-A795-CF2352E73DD7}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$E$3:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G24 G49:G112 G26:G37 G39:G48</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0267C4F-C3CC-42A6-BBFB-5EFD1B8A58DA}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$C$3:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F134</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CDE65B41-9EC1-43E3-A795-CF2352E73DD7}">
-          <x14:formula1>
-            <xm:f>DONOTDELETE!$E$3:$E$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G22 G24:G119</xm:sqref>
+          <xm:sqref>F49:F127 F2:F37 F39:F48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1917,6 +5036,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733BCBB1-D5CC-4831-B2DC-3C8F6A5F970B}">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07BF736-45A7-4385-AF93-AF18973F82F3}">
   <dimension ref="A2:E10"/>
   <sheetViews>
@@ -1932,98 +5089,434 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB104D30-5BFC-4A61-AA52-5CDBBD363501}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>